--- a/data/OIS_clean.xlsx
+++ b/data/OIS_clean.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ46"/>
+  <dimension ref="A1:DQ57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,364 +442,364 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AK1" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AL1" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AM1" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AP1" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AQ1" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AR1" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AS1" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AT1" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AV1" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AZ1" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BB1" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BC1" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BD1" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BE1" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BF1" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BG1" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BH1" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BI1" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BJ1" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BK1" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BL1" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BM1" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BN1" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BO1" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BP1" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BQ1" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BR1" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BS1" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BT1" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BU1" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BV1" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BW1" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BX1" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BY1" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BZ1" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="BZ1" s="1" t="n">
+      <c r="CA1" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="CA1" s="1" t="n">
+      <c r="CB1" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="CB1" s="1" t="n">
+      <c r="CC1" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="CC1" s="1" t="n">
+      <c r="CD1" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CE1" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CF1" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CG1" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CH1" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="CH1" s="1" t="n">
+      <c r="CI1" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="CI1" s="1" t="n">
+      <c r="CJ1" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="CJ1" s="1" t="n">
+      <c r="CK1" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="CK1" s="1" t="n">
+      <c r="CL1" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CM1" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="CM1" s="1" t="n">
+      <c r="CN1" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="CN1" s="1" t="n">
+      <c r="CO1" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="CO1" s="1" t="n">
+      <c r="CP1" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="CP1" s="1" t="n">
+      <c r="CQ1" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CR1" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="CR1" s="1" t="n">
+      <c r="CS1" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="CS1" s="1" t="n">
+      <c r="CT1" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="CT1" s="1" t="n">
+      <c r="CU1" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="CU1" s="1" t="n">
+      <c r="CV1" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="CW1" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="CW1" s="1" t="n">
+      <c r="CX1" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="CX1" s="1" t="n">
+      <c r="CY1" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="CY1" s="1" t="n">
+      <c r="CZ1" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="CZ1" s="1" t="n">
+      <c r="DA1" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="DA1" s="1" t="n">
+      <c r="DB1" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="DB1" s="1" t="n">
+      <c r="DC1" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="DC1" s="1" t="n">
+      <c r="DD1" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="DD1" s="1" t="n">
+      <c r="DE1" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="DE1" s="1" t="n">
+      <c r="DF1" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="DF1" s="1" t="n">
+      <c r="DG1" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="DG1" s="1" t="n">
+      <c r="DH1" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="DH1" s="1" t="n">
+      <c r="DI1" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="DI1" s="1" t="n">
+      <c r="DJ1" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="DJ1" s="1" t="n">
+      <c r="DK1" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="DK1" s="1" t="n">
+      <c r="DL1" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="DL1" s="1" t="n">
+      <c r="DM1" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="DM1" s="1" t="n">
+      <c r="DN1" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="DN1" s="1" t="n">
+      <c r="DO1" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="DO1" s="1" t="n">
+      <c r="DP1" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="DP1" s="1" t="n">
+      <c r="DQ1" s="1" t="n">
         <v>357</v>
-      </c>
-      <c r="DQ1" s="1" t="n">
-        <v>360</v>
       </c>
     </row>
     <row r="2">
@@ -17225,6 +17225,4021 @@
       </c>
       <c r="DQ46" t="n">
         <v>1.144039006</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44141</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0845949402016266</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0785256133318416</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.07318274550905229</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0699338740341571</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0656404084122362</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0618296105116351</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0595392827488176</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0592664165224409</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.061134871261852</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0650700174751945</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0714018657119337</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0800791587871993</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.0913655165493116</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.104021514120091</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.119636904076772</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.136915897560637</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.155590600384892</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.17587820566505</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.197212178332699</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.219297552907908</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.242147437951048</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.264822851368234</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.2879219174087</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.311320542846133</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.334654707298457</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.357078315450953</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.380025300591618</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.40266818775229</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.424954454553839</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.446396041773042</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.467940846912971</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0.489103813071845</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0.510328345591132</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0.52961020619968</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.549618541127697</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.569864720220922</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0.58865431135152</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.606656503420911</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.625480210246452</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0.643495632517264</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.6607224151187709</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.677713407168668</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0.694243534849459</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.710284217405057</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.725977058993437</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0.7407953120601311</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0.755375484615079</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0.769361587716781</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0.782743682240847</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0.795144935930104</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0.807442037347519</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0.81924645961986</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0.830593861197558</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0.841167408318103</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0.851709715469986</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0.861886068713556</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0.871933167219094</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>0.880939057654748</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0.890178164300047</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>0.899434079932684</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>0.907953616485883</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>0.916327019765964</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0.924460795487233</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>0.932357294686508</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>0.94010161779534</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>0.947447157595482</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>0.954644544998218</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>0.961688028898228</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>0.968499023971772</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>0.97486826649806</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0.98122669057565</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>0.98735735015658</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>0.993261664629884</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>0.9987593167344549</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>1.00422217150345</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>1.00946245773018</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>1.0144813171532</v>
+      </c>
+      <c r="CB47" t="n">
+        <v>1.01917785265114</v>
+      </c>
+      <c r="CC47" t="n">
+        <v>1.02376180869117</v>
+      </c>
+      <c r="CD47" t="n">
+        <v>1.02826609402671</v>
+      </c>
+      <c r="CE47" t="n">
+        <v>1.03232140111226</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>1.03609770673848</v>
+      </c>
+      <c r="CG47" t="n">
+        <v>1.03993849957856</v>
+      </c>
+      <c r="CH47" t="n">
+        <v>1.04351731271084</v>
+      </c>
+      <c r="CI47" t="n">
+        <v>1.04685751377454</v>
+      </c>
+      <c r="CJ47" t="n">
+        <v>1.05008425222474</v>
+      </c>
+      <c r="CK47" t="n">
+        <v>1.05317022163553</v>
+      </c>
+      <c r="CL47" t="n">
+        <v>1.05612561754968</v>
+      </c>
+      <c r="CM47" t="n">
+        <v>1.05899069164901</v>
+      </c>
+      <c r="CN47" t="n">
+        <v>1.06168321282766</v>
+      </c>
+      <c r="CO47" t="n">
+        <v>1.06430361925081</v>
+      </c>
+      <c r="CP47" t="n">
+        <v>1.06685718135104</v>
+      </c>
+      <c r="CQ47" t="n">
+        <v>1.0693229678677</v>
+      </c>
+      <c r="CR47" t="n">
+        <v>1.07165795836476</v>
+      </c>
+      <c r="CS47" t="n">
+        <v>1.07397351041839</v>
+      </c>
+      <c r="CT47" t="n">
+        <v>1.07622429508727</v>
+      </c>
+      <c r="CU47" t="n">
+        <v>1.07841740388496</v>
+      </c>
+      <c r="CV47" t="n">
+        <v>1.08049051558181</v>
+      </c>
+      <c r="CW47" t="n">
+        <v>1.08258974182765</v>
+      </c>
+      <c r="CX47" t="n">
+        <v>1.08465067554341</v>
+      </c>
+      <c r="CY47" t="n">
+        <v>1.08672111100435</v>
+      </c>
+      <c r="CZ47" t="n">
+        <v>1.08860142065323</v>
+      </c>
+      <c r="DA47" t="n">
+        <v>1.0905457286515</v>
+      </c>
+      <c r="DB47" t="n">
+        <v>1.09249916268668</v>
+      </c>
+      <c r="DC47" t="n">
+        <v>1.09429277249969</v>
+      </c>
+      <c r="DD47" t="n">
+        <v>1.09598740757668</v>
+      </c>
+      <c r="DE47" t="n">
+        <v>1.09772727912454</v>
+      </c>
+      <c r="DF47" t="n">
+        <v>1.09935423839962</v>
+      </c>
+      <c r="DG47" t="n">
+        <v>1.10086800710826</v>
+      </c>
+      <c r="DH47" t="n">
+        <v>1.10231538244822</v>
+      </c>
+      <c r="DI47" t="n">
+        <v>1.10367429552762</v>
+      </c>
+      <c r="DJ47" t="n">
+        <v>1.10495348597368</v>
+      </c>
+      <c r="DK47" t="n">
+        <v>1.10613289955184</v>
+      </c>
+      <c r="DL47" t="n">
+        <v>1.10717470729939</v>
+      </c>
+      <c r="DM47" t="n">
+        <v>1.10814495562168</v>
+      </c>
+      <c r="DN47" t="n">
+        <v>1.1090026487521</v>
+      </c>
+      <c r="DO47" t="n">
+        <v>1.10974377296015</v>
+      </c>
+      <c r="DP47" t="n">
+        <v>1.11034615089671</v>
+      </c>
+      <c r="DQ47" t="n">
+        <v>1.11084674600763</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0851575256044881</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0800812701747641</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0773221517242464</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0749996469770047</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0741172649166551</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0750037203008186</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.07752783668139859</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.08132904049063359</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.086271928698346</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0925474915069761</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.100977860420565</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.111654166902464</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.1251549238826</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.139513320436481</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.156919582786743</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.175459980398203</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.195716330754417</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.216736797296241</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.238955988189417</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.261948350757278</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.285800485430624</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.309523826426524</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.333720549020938</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.358242474264869</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.382692024982473</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.406169868240199</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.430165820033128</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.453802956987388</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.477018314658855</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0.499298724496493</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.521622780353621</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0.543480101108467</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0.565550687875592</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.585085422302969</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.605508126663398</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0.625861315566314</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0.64527315115657</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0.663162810793277</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.681976952270512</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0.699677147913548</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.717052816407912</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.733533666165967</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.749664717652198</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.765248099287358</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0.7804349771594969</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0.794729577473236</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0.808758058139642</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0.822187861053885</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0.835019982299312</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0.846900510915222</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0.858673833683911</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0.869971845706988</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0.8808326630065521</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0.890956501441757</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0.9010577112560521</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>0.910819069433767</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>0.920572039980575</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>0.929138709106597</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0.938050523456668</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>0.946909739138785</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>0.955357725226853</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>0.963411354216181</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>0.971341186812209</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>0.979055239623013</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>0.9866334435388771</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>0.993831104709732</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>1.00089064867792</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>1.00780379421184</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>1.01449073651444</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>1.02074347316035</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>1.02698266487627</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>1.03299299007775</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>1.03877364860156</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>1.04414653982749</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>1.0494731839099</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>1.05456803232213</v>
+      </c>
+      <c r="CA48" t="n">
+        <v>1.05943044142303</v>
+      </c>
+      <c r="CB48" t="n">
+        <v>1.06396164477213</v>
+      </c>
+      <c r="CC48" t="n">
+        <v>1.06836246006</v>
+      </c>
+      <c r="CD48" t="n">
+        <v>1.07261708267853</v>
+      </c>
+      <c r="CE48" t="n">
+        <v>1.07654665058209</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>1.08006143834602</v>
+      </c>
+      <c r="CG48" t="n">
+        <v>1.08365502856655</v>
+      </c>
+      <c r="CH48" t="n">
+        <v>1.08694695347891</v>
+      </c>
+      <c r="CI48" t="n">
+        <v>1.09010250415429</v>
+      </c>
+      <c r="CJ48" t="n">
+        <v>1.09303477736714</v>
+      </c>
+      <c r="CK48" t="n">
+        <v>1.09585675602127</v>
+      </c>
+      <c r="CL48" t="n">
+        <v>1.09854718105383</v>
+      </c>
+      <c r="CM48" t="n">
+        <v>1.10114528770047</v>
+      </c>
+      <c r="CN48" t="n">
+        <v>1.10357930636746</v>
+      </c>
+      <c r="CO48" t="n">
+        <v>1.10594271682528</v>
+      </c>
+      <c r="CP48" t="n">
+        <v>1.1082425994766</v>
+      </c>
+      <c r="CQ48" t="n">
+        <v>1.11046249445019</v>
+      </c>
+      <c r="CR48" t="n">
+        <v>1.11256596428121</v>
+      </c>
+      <c r="CS48" t="n">
+        <v>1.11465553520593</v>
+      </c>
+      <c r="CT48" t="n">
+        <v>1.11669255352928</v>
+      </c>
+      <c r="CU48" t="n">
+        <v>1.11868547520287</v>
+      </c>
+      <c r="CV48" t="n">
+        <v>1.12057908177346</v>
+      </c>
+      <c r="CW48" t="n">
+        <v>1.12250860544149</v>
+      </c>
+      <c r="CX48" t="n">
+        <v>1.12441714524004</v>
+      </c>
+      <c r="CY48" t="n">
+        <v>1.12637099532285</v>
+      </c>
+      <c r="CZ48" t="n">
+        <v>1.1281198469874</v>
+      </c>
+      <c r="DA48" t="n">
+        <v>1.12996189977912</v>
+      </c>
+      <c r="DB48" t="n">
+        <v>1.1318051777727</v>
+      </c>
+      <c r="DC48" t="n">
+        <v>1.13356348880159</v>
+      </c>
+      <c r="DD48" t="n">
+        <v>1.13517793659571</v>
+      </c>
+      <c r="DE48" t="n">
+        <v>1.13686249762114</v>
+      </c>
+      <c r="DF48" t="n">
+        <v>1.13842748207462</v>
+      </c>
+      <c r="DG48" t="n">
+        <v>1.13993731333445</v>
+      </c>
+      <c r="DH48" t="n">
+        <v>1.14133789564551</v>
+      </c>
+      <c r="DI48" t="n">
+        <v>1.14267133798015</v>
+      </c>
+      <c r="DJ48" t="n">
+        <v>1.14392913174334</v>
+      </c>
+      <c r="DK48" t="n">
+        <v>1.14509049579208</v>
+      </c>
+      <c r="DL48" t="n">
+        <v>1.14611708824091</v>
+      </c>
+      <c r="DM48" t="n">
+        <v>1.14707299228148</v>
+      </c>
+      <c r="DN48" t="n">
+        <v>1.14791682779896</v>
+      </c>
+      <c r="DO48" t="n">
+        <v>1.14864368257144</v>
+      </c>
+      <c r="DP48" t="n">
+        <v>1.14923104740865</v>
+      </c>
+      <c r="DQ48" t="n">
+        <v>1.14971405739631</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44155</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.08111</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0750206853455274</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0714664990196358</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0689266743470224</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.06689428519873961</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.06618948561159881</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.06735863367370259</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.07047100678068691</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.074850629987123</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0799214070973514</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0859797711354027</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0937755251654095</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.103396056956183</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.115272479936102</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.128253271571033</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.144065334699483</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.161256419171365</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.180180366899776</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.200582014706143</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.221301919245593</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.242636762742202</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.264317170397574</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.285775395937302</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.306966167249281</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.32855691000096</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.350043201438299</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.370703165634575</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.391906459128742</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.412933968404318</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.433762417006942</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.453901230259628</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.47419880562947</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0.494163174837024</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.514179434725294</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.5323313372038559</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.551108106499516</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0.569823021867602</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0.587465487038297</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0.604063112605379</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.621271157645703</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0.637401017852075</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.652999926578492</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.668237527614118</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.68263592202336</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.696692978521686</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.710400886031477</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.723328641894195</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0.736058161117392</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0.748303633339932</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0.760074498164838</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0.77103167432715</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0.781938721131167</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0.792554726206902</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0.802565385896177</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0.8120141979444599</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0.821444348928843</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>0.830548959484068</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0.8395320868385761</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>0.847572434605527</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0.855802016641289</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>0.86393419303796</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>0.871552136851411</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>0.879005984295105</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>0.8860619185682</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>0.89296399559373</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>0.899709242674078</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>0.906155432784497</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>0.912314008450498</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>0.9183905322988341</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>0.924249478821034</v>
+      </c>
+      <c r="BT49" t="n">
+        <v>0.929713664331306</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0.935154721228878</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>0.940388157691966</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>0.945416965193101</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>0.950089724759695</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>0.9547240605455311</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>0.959208890779467</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>0.963405129747541</v>
+      </c>
+      <c r="CB49" t="n">
+        <v>0.967370503069431</v>
+      </c>
+      <c r="CC49" t="n">
+        <v>0.9712362132718531</v>
+      </c>
+      <c r="CD49" t="n">
+        <v>0.9749920043486759</v>
+      </c>
+      <c r="CE49" t="n">
+        <v>0.978444613404393</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>0.98162083876939</v>
+      </c>
+      <c r="CG49" t="n">
+        <v>0.984848125463943</v>
+      </c>
+      <c r="CH49" t="n">
+        <v>0.987819918360984</v>
+      </c>
+      <c r="CI49" t="n">
+        <v>0.99065151274719</v>
+      </c>
+      <c r="CJ49" t="n">
+        <v>0.993381155130122</v>
+      </c>
+      <c r="CK49" t="n">
+        <v>0.995930733474816</v>
+      </c>
+      <c r="CL49" t="n">
+        <v>0.998395636503037</v>
+      </c>
+      <c r="CM49" t="n">
+        <v>1.00078030968231</v>
+      </c>
+      <c r="CN49" t="n">
+        <v>1.00304068419318</v>
+      </c>
+      <c r="CO49" t="n">
+        <v>1.00518722842478</v>
+      </c>
+      <c r="CP49" t="n">
+        <v>1.00729712371124</v>
+      </c>
+      <c r="CQ49" t="n">
+        <v>1.00932865743249</v>
+      </c>
+      <c r="CR49" t="n">
+        <v>1.01124661017242</v>
+      </c>
+      <c r="CS49" t="n">
+        <v>1.01314249789711</v>
+      </c>
+      <c r="CT49" t="n">
+        <v>1.01499872499049</v>
+      </c>
+      <c r="CU49" t="n">
+        <v>1.0167621846668</v>
+      </c>
+      <c r="CV49" t="n">
+        <v>1.01844159280385</v>
+      </c>
+      <c r="CW49" t="n">
+        <v>1.02013576582005</v>
+      </c>
+      <c r="CX49" t="n">
+        <v>1.02179253095649</v>
+      </c>
+      <c r="CY49" t="n">
+        <v>1.02345020720547</v>
+      </c>
+      <c r="CZ49" t="n">
+        <v>1.02494945419958</v>
+      </c>
+      <c r="DA49" t="n">
+        <v>1.02649300295327</v>
+      </c>
+      <c r="DB49" t="n">
+        <v>1.02802027865811</v>
+      </c>
+      <c r="DC49" t="n">
+        <v>1.02944577233172</v>
+      </c>
+      <c r="DD49" t="n">
+        <v>1.03077015411244</v>
+      </c>
+      <c r="DE49" t="n">
+        <v>1.03212136457236</v>
+      </c>
+      <c r="DF49" t="n">
+        <v>1.03336254561112</v>
+      </c>
+      <c r="DG49" t="n">
+        <v>1.03453364335235</v>
+      </c>
+      <c r="DH49" t="n">
+        <v>1.03564222345254</v>
+      </c>
+      <c r="DI49" t="n">
+        <v>1.0366494861119</v>
+      </c>
+      <c r="DJ49" t="n">
+        <v>1.03759636694007</v>
+      </c>
+      <c r="DK49" t="n">
+        <v>1.03845583648209</v>
+      </c>
+      <c r="DL49" t="n">
+        <v>1.03920067860605</v>
+      </c>
+      <c r="DM49" t="n">
+        <v>1.03987769596793</v>
+      </c>
+      <c r="DN49" t="n">
+        <v>1.04045689276699</v>
+      </c>
+      <c r="DO49" t="n">
+        <v>1.0409349994014</v>
+      </c>
+      <c r="DP49" t="n">
+        <v>1.04129834299683</v>
+      </c>
+      <c r="DQ49" t="n">
+        <v>1.04156844833355</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.08110000000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0800893135721699</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0757789433579916</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0739933339451275</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0729733685942017</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0726883425422274</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0729774716743804</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.07379265330385661</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.075613642347547</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0788391795992416</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0840467004970762</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0915209597216415</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.101364692043234</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.113677473177029</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.128473750041591</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.144487979491685</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.161255804107169</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.179094538714717</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.197867619089555</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.217889017241623</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.238560537405818</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.260544185061414</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.283335025314358</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.306888187174495</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.330437189201258</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.353765348584407</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.377469624448727</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.400873341594392</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.42359436443011</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.445794420727421</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.467702216420922</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0.489085011799647</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0.509731088181627</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.529667369512194</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.549559728849317</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.569593086318444</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.5881037290371</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.605768612442353</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0.624169477093004</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.641715723960206</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0.658441955593137</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.67491458247226</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.69093558990782</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.706661575441986</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0.721576807890258</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0.736176593182293</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0.750435943234583</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0.764183308687946</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0.77727002789445</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0.789711677559426</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0.801937820858139</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0.8136947951254589</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0.824888154399651</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0.835555284873031</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0.84606698300399</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0.856202573248952</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>0.865876961194333</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0.875118780895174</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0.884247014047059</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0.893350935626083</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>0.901688314975256</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>0.9098465867407201</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>0.91774038798226</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0.925459750422498</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>0.932764155554922</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>0.939907776475378</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>0.946814304541252</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>0.953561672963299</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>0.960008748238117</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>0.9661680665951941</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>0.972246241580218</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0.978108732180009</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>0.983699728990687</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>0.989030091627263</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>0.994278096080275</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>0.999326863601587</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>1.00412828922548</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>1.00874162431005</v>
+      </c>
+      <c r="CB50" t="n">
+        <v>1.01321765625562</v>
+      </c>
+      <c r="CC50" t="n">
+        <v>1.01764452687648</v>
+      </c>
+      <c r="CD50" t="n">
+        <v>1.02165841751285</v>
+      </c>
+      <c r="CE50" t="n">
+        <v>1.02541740651052</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>1.02926071085041</v>
+      </c>
+      <c r="CG50" t="n">
+        <v>1.03286024474299</v>
+      </c>
+      <c r="CH50" t="n">
+        <v>1.03623566405532</v>
+      </c>
+      <c r="CI50" t="n">
+        <v>1.03951063588355</v>
+      </c>
+      <c r="CJ50" t="n">
+        <v>1.04265522649312</v>
+      </c>
+      <c r="CK50" t="n">
+        <v>1.04570997710056</v>
+      </c>
+      <c r="CL50" t="n">
+        <v>1.04858482866967</v>
+      </c>
+      <c r="CM50" t="n">
+        <v>1.05138473884294</v>
+      </c>
+      <c r="CN50" t="n">
+        <v>1.05408410415665</v>
+      </c>
+      <c r="CO50" t="n">
+        <v>1.05671770998464</v>
+      </c>
+      <c r="CP50" t="n">
+        <v>1.05923472405622</v>
+      </c>
+      <c r="CQ50" t="n">
+        <v>1.06167036368804</v>
+      </c>
+      <c r="CR50" t="n">
+        <v>1.06405599459516</v>
+      </c>
+      <c r="CS50" t="n">
+        <v>1.06637017980505</v>
+      </c>
+      <c r="CT50" t="n">
+        <v>1.06859434415271</v>
+      </c>
+      <c r="CU50" t="n">
+        <v>1.07073565926389</v>
+      </c>
+      <c r="CV50" t="n">
+        <v>1.0728694973941</v>
+      </c>
+      <c r="CW50" t="n">
+        <v>1.07495251191652</v>
+      </c>
+      <c r="CX50" t="n">
+        <v>1.07696747779759</v>
+      </c>
+      <c r="CY50" t="n">
+        <v>1.07891873278205</v>
+      </c>
+      <c r="CZ50" t="n">
+        <v>1.08086664300477</v>
+      </c>
+      <c r="DA50" t="n">
+        <v>1.08282233137339</v>
+      </c>
+      <c r="DB50" t="n">
+        <v>1.08461727212696</v>
+      </c>
+      <c r="DC50" t="n">
+        <v>1.0863129606849</v>
+      </c>
+      <c r="DD50" t="n">
+        <v>1.08805422201402</v>
+      </c>
+      <c r="DE50" t="n">
+        <v>1.08968332720286</v>
+      </c>
+      <c r="DF50" t="n">
+        <v>1.09120043304809</v>
+      </c>
+      <c r="DG50" t="n">
+        <v>1.09265289442755</v>
+      </c>
+      <c r="DH50" t="n">
+        <v>1.09401906741959</v>
+      </c>
+      <c r="DI50" t="n">
+        <v>1.09530825578107</v>
+      </c>
+      <c r="DJ50" t="n">
+        <v>1.09648834977817</v>
+      </c>
+      <c r="DK50" t="n">
+        <v>1.09755862696691</v>
+      </c>
+      <c r="DL50" t="n">
+        <v>1.0985493317056</v>
+      </c>
+      <c r="DM50" t="n">
+        <v>1.09943181415513</v>
+      </c>
+      <c r="DN50" t="n">
+        <v>1.100194684216</v>
+      </c>
+      <c r="DO50" t="n">
+        <v>1.1008382139133</v>
+      </c>
+      <c r="DP50" t="n">
+        <v>1.10137868272623</v>
+      </c>
+      <c r="DQ50" t="n">
+        <v>1.10179725252754</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0826235287272518</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.07850525793471461</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.07816310502633531</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0800651614252962</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0813840332129393</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.08360221614191669</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0876676047532047</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.09324051620845</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.100047757214619</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.108602443785644</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.11904753348745</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.131420914948022</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.145947671318715</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.16329747729534</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.182419446341472</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.203871244624913</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.227565400076843</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.252953719209749</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.279481544800356</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.306704785415656</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.334280187923489</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.361994085000094</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.389990756825136</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.41752757434018</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.444499873039616</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.471706870561687</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.498462646866379</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.524413860782021</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.549804539297737</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0.574903112642004</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0.599437272626943</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0.623157972782538</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0.646090360417051</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0.668996554293671</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.691847346517684</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0.713441290391463</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0.733834038199201</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0.755089968225512</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.77515240647527</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0.7947114074005019</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.813764766311174</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.832288933753089</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.850256921518971</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0.867644186880243</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0.884428361780473</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0.900763072123834</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0.916441177210871</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0.9312855869558</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0.945312952832432</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0.959020603964998</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0.972140080058849</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0.984584085733836</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0.996411169831683</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.00804661796562</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>1.01925939969414</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>1.02996823253832</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.04021609972148</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>1.05036799093937</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.06043123722322</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>1.06990131458237</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.07912416715885</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1.0881047117376</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>1.09684390452232</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.10534264212275</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>1.11360176615857</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.12162206741153</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>1.12948848867569</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>1.13703072710694</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>1.14425725683756</v>
+      </c>
+      <c r="BT51" t="n">
+        <v>1.15140568892037</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>1.15831341281029</v>
+      </c>
+      <c r="BV51" t="n">
+        <v>1.16490981624793</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>1.17120315993253</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>1.17739985888003</v>
+      </c>
+      <c r="BY51" t="n">
+        <v>1.18335794339574</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>1.18901697821725</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>1.19444342825142</v>
+      </c>
+      <c r="CB51" t="n">
+        <v>1.19969348472125</v>
+      </c>
+      <c r="CC51" t="n">
+        <v>1.20481296988093</v>
+      </c>
+      <c r="CD51" t="n">
+        <v>1.20953381901322</v>
+      </c>
+      <c r="CE51" t="n">
+        <v>1.21388127094863</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>1.2183009073197</v>
+      </c>
+      <c r="CG51" t="n">
+        <v>1.22237291985715</v>
+      </c>
+      <c r="CH51" t="n">
+        <v>1.22625505280364</v>
+      </c>
+      <c r="CI51" t="n">
+        <v>1.22995987935898</v>
+      </c>
+      <c r="CJ51" t="n">
+        <v>1.23349938993366</v>
+      </c>
+      <c r="CK51" t="n">
+        <v>1.2368850255286</v>
+      </c>
+      <c r="CL51" t="n">
+        <v>1.24012770884674</v>
+      </c>
+      <c r="CM51" t="n">
+        <v>1.24323787331415</v>
+      </c>
+      <c r="CN51" t="n">
+        <v>1.24622549017276</v>
+      </c>
+      <c r="CO51" t="n">
+        <v>1.24913108939931</v>
+      </c>
+      <c r="CP51" t="n">
+        <v>1.2519007084652</v>
+      </c>
+      <c r="CQ51" t="n">
+        <v>1.25457525940263</v>
+      </c>
+      <c r="CR51" t="n">
+        <v>1.25719108426243</v>
+      </c>
+      <c r="CS51" t="n">
+        <v>1.25972654997965</v>
+      </c>
+      <c r="CT51" t="n">
+        <v>1.26216316945782</v>
+      </c>
+      <c r="CU51" t="n">
+        <v>1.26451051141537</v>
+      </c>
+      <c r="CV51" t="n">
+        <v>1.26685290292173</v>
+      </c>
+      <c r="CW51" t="n">
+        <v>1.26914449563457</v>
+      </c>
+      <c r="CX51" t="n">
+        <v>1.27136778675313</v>
+      </c>
+      <c r="CY51" t="n">
+        <v>1.27352845056843</v>
+      </c>
+      <c r="CZ51" t="n">
+        <v>1.27569312641518</v>
+      </c>
+      <c r="DA51" t="n">
+        <v>1.2778514284215</v>
+      </c>
+      <c r="DB51" t="n">
+        <v>1.27988244622227</v>
+      </c>
+      <c r="DC51" t="n">
+        <v>1.28178569404044</v>
+      </c>
+      <c r="DD51" t="n">
+        <v>1.28374621517683</v>
+      </c>
+      <c r="DE51" t="n">
+        <v>1.28556672369085</v>
+      </c>
+      <c r="DF51" t="n">
+        <v>1.2873051963594</v>
+      </c>
+      <c r="DG51" t="n">
+        <v>1.28895606120463</v>
+      </c>
+      <c r="DH51" t="n">
+        <v>1.29051394818017</v>
+      </c>
+      <c r="DI51" t="n">
+        <v>1.29198915711921</v>
+      </c>
+      <c r="DJ51" t="n">
+        <v>1.29334458053313</v>
+      </c>
+      <c r="DK51" t="n">
+        <v>1.2945788833804</v>
+      </c>
+      <c r="DL51" t="n">
+        <v>1.29572673088993</v>
+      </c>
+      <c r="DM51" t="n">
+        <v>1.29675484131649</v>
+      </c>
+      <c r="DN51" t="n">
+        <v>1.29764959817516</v>
+      </c>
+      <c r="DO51" t="n">
+        <v>1.29841089316003</v>
+      </c>
+      <c r="DP51" t="n">
+        <v>1.29905794534245</v>
+      </c>
+      <c r="DQ51" t="n">
+        <v>1.29956838940591</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0770482375039505</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.07400023731807211</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0739933867942028</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0752579943215191</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0775218828585164</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0800713189133441</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.082633755147067</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.08619885768259131</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.09142273080309141</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.09841434278110241</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.106878474356287</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.116569335603177</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.127600536492416</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.140955347703134</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.156307906983118</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.174433126920967</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.195439361577041</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.218665341709738</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.243399868590693</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.269073514072839</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.295252090942513</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.321690735081036</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.348506695015833</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.374970620138951</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.400964583653505</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.427247752673818</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.453149155878005</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.478317152822719</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.502977831348753</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.527373339045684</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0.551219697654481</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0.574257978772868</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0.5964987964658111</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0.618667694180862</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.640721085636454</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0.661490011459848</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0.681026547453762</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0.701295980368802</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.720325146324338</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0.73876716928535</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.756620702668773</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.773891545469822</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0.790586789541204</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.806712884125984</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0.822275707015317</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0.83744243529123</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0.852044004499163</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0.865935440324019</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0.8791432999272381</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0.892126338704214</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0.904616128761046</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0.916512975120633</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0.927857052027306</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0.939043392517787</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0.949837956754457</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0.960150456255543</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0.970011522067186</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0.9797620600661821</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.989397914321996</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>0.998427565636522</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.00717671702449</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>1.01565273195302</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>1.02386120537608</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.03180738374704</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>1.03949619174854</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.04693225658823</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>1.05419755124307</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>1.061138267474</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>1.06776625332949</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>1.07430215722826</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>1.08059958236728</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>1.08659723718476</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>1.09230572083962</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>1.09791450601161</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>1.10329706393011</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>1.10840119778876</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>1.11328908970878</v>
+      </c>
+      <c r="CB52" t="n">
+        <v>1.11801326129919</v>
+      </c>
+      <c r="CC52" t="n">
+        <v>1.12261670727122</v>
+      </c>
+      <c r="CD52" t="n">
+        <v>1.12686027690408</v>
+      </c>
+      <c r="CE52" t="n">
+        <v>1.13076822814986</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>1.1347416591152</v>
+      </c>
+      <c r="CG52" t="n">
+        <v>1.13840345938217</v>
+      </c>
+      <c r="CH52" t="n">
+        <v>1.14189570216734</v>
+      </c>
+      <c r="CI52" t="n">
+        <v>1.14522994510109</v>
+      </c>
+      <c r="CJ52" t="n">
+        <v>1.14841721009787</v>
+      </c>
+      <c r="CK52" t="n">
+        <v>1.15146801403976</v>
+      </c>
+      <c r="CL52" t="n">
+        <v>1.15439239737512</v>
+      </c>
+      <c r="CM52" t="n">
+        <v>1.15719995079559</v>
+      </c>
+      <c r="CN52" t="n">
+        <v>1.15989984014044</v>
+      </c>
+      <c r="CO52" t="n">
+        <v>1.16252889414806</v>
+      </c>
+      <c r="CP52" t="n">
+        <v>1.16503841881917</v>
+      </c>
+      <c r="CQ52" t="n">
+        <v>1.16746553930727</v>
+      </c>
+      <c r="CR52" t="n">
+        <v>1.16984339963861</v>
+      </c>
+      <c r="CS52" t="n">
+        <v>1.17215248685403</v>
+      </c>
+      <c r="CT52" t="n">
+        <v>1.17437595892589</v>
+      </c>
+      <c r="CU52" t="n">
+        <v>1.17652244734052</v>
+      </c>
+      <c r="CV52" t="n">
+        <v>1.17866917493448</v>
+      </c>
+      <c r="CW52" t="n">
+        <v>1.18077430209676</v>
+      </c>
+      <c r="CX52" t="n">
+        <v>1.18282167186631</v>
+      </c>
+      <c r="CY52" t="n">
+        <v>1.18481627734765</v>
+      </c>
+      <c r="CZ52" t="n">
+        <v>1.18681940332094</v>
+      </c>
+      <c r="DA52" t="n">
+        <v>1.18882138597779</v>
+      </c>
+      <c r="DB52" t="n">
+        <v>1.19070965992666</v>
+      </c>
+      <c r="DC52" t="n">
+        <v>1.1924830535148</v>
+      </c>
+      <c r="DD52" t="n">
+        <v>1.19431391129194</v>
+      </c>
+      <c r="DE52" t="n">
+        <v>1.19601794294816</v>
+      </c>
+      <c r="DF52" t="n">
+        <v>1.19764898217185</v>
+      </c>
+      <c r="DG52" t="n">
+        <v>1.19920159210358</v>
+      </c>
+      <c r="DH52" t="n">
+        <v>1.20067053291869</v>
+      </c>
+      <c r="DI52" t="n">
+        <v>1.20206540909963</v>
+      </c>
+      <c r="DJ52" t="n">
+        <v>1.20335098168522</v>
+      </c>
+      <c r="DK52" t="n">
+        <v>1.20452571545633</v>
+      </c>
+      <c r="DL52" t="n">
+        <v>1.20562256337592</v>
+      </c>
+      <c r="DM52" t="n">
+        <v>1.20660978775325</v>
+      </c>
+      <c r="DN52" t="n">
+        <v>1.20747415859157</v>
+      </c>
+      <c r="DO52" t="n">
+        <v>1.2082153376595</v>
+      </c>
+      <c r="DP52" t="n">
+        <v>1.20885213908916</v>
+      </c>
+      <c r="DQ52" t="n">
+        <v>1.20936285505708</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0871850753455265</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.08008123141883761</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.07733726733975931</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0780389856823798</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0788898683707296</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0800705082969931</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0822890925946589</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.08609630997083979</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.09181240498199961</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0998901697842558</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.110375263710175</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.123212112332858</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.138515455339887</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.156678982184051</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.176313092328858</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.197794579501555</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.220953536352701</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.245483466347948</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.271096622953371</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.29756261843507</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.32467923374647</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.35221736600601</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.380276933869348</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.408075103570485</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.435468869670658</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.463246561289714</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.490690511175724</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.517417746330571</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.543659858959351</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.569669904817706</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.595141362564673</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0.619792949788831</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.643631232080911</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0.667431535951603</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.691146904036303</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0.713517245472258</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0.734593059737948</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0.756494332406572</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0.777089086127451</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0.797080981257671</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.816464386588813</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.835229807659096</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.853367444834454</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0.870868386435896</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.88772451042686</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0.90410281464326</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0.919807459231812</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0.934672388058028</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0.948722191192082</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0.9624530924282521</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0.975591913846511</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0.988047364656795</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0.999874790488636</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.01149601568575</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>1.02267674760457</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>1.03333350453183</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.04350737581214</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>1.0535580558961</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.06348877782564</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>1.07280035323773</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.08183399652985</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>1.09059760223896</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>1.09909584847129</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.10733312186509</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>1.11531354002134</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.12304097181768</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>1.1305998605018</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>1.13782933802732</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>1.14474068426405</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>1.15156335282325</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>1.15814404097894</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>1.16441789681872</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>1.17039515599713</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>1.17627369637327</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>1.18192050001387</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>1.18728015568437</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>1.19241734421463</v>
+      </c>
+      <c r="CB53" t="n">
+        <v>1.19738683271894</v>
+      </c>
+      <c r="CC53" t="n">
+        <v>1.20223356115664</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>1.20670519873726</v>
+      </c>
+      <c r="CE53" t="n">
+        <v>1.21082658466645</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>1.21502125054994</v>
+      </c>
+      <c r="CG53" t="n">
+        <v>1.2188918682656</v>
+      </c>
+      <c r="CH53" t="n">
+        <v>1.22258887851904</v>
+      </c>
+      <c r="CI53" t="n">
+        <v>1.22612498856045</v>
+      </c>
+      <c r="CJ53" t="n">
+        <v>1.22951231663725</v>
+      </c>
+      <c r="CK53" t="n">
+        <v>1.23276242572971</v>
+      </c>
+      <c r="CL53" t="n">
+        <v>1.23588635499422</v>
+      </c>
+      <c r="CM53" t="n">
+        <v>1.23889464909386</v>
+      </c>
+      <c r="CN53" t="n">
+        <v>1.2417973855799</v>
+      </c>
+      <c r="CO53" t="n">
+        <v>1.24463454645779</v>
+      </c>
+      <c r="CP53" t="n">
+        <v>1.24735375510433</v>
+      </c>
+      <c r="CQ53" t="n">
+        <v>1.24999517859277</v>
+      </c>
+      <c r="CR53" t="n">
+        <v>1.25259517174504</v>
+      </c>
+      <c r="CS53" t="n">
+        <v>1.25513264987779</v>
+      </c>
+      <c r="CT53" t="n">
+        <v>1.25758889694488</v>
+      </c>
+      <c r="CU53" t="n">
+        <v>1.25997298049967</v>
+      </c>
+      <c r="CV53" t="n">
+        <v>1.26237081877036</v>
+      </c>
+      <c r="CW53" t="n">
+        <v>1.26473601753112</v>
+      </c>
+      <c r="CX53" t="n">
+        <v>1.26705004907235</v>
+      </c>
+      <c r="CY53" t="n">
+        <v>1.26931789380339</v>
+      </c>
+      <c r="CZ53" t="n">
+        <v>1.27160880776493</v>
+      </c>
+      <c r="DA53" t="n">
+        <v>1.27391179574629</v>
+      </c>
+      <c r="DB53" t="n">
+        <v>1.27609641475923</v>
+      </c>
+      <c r="DC53" t="n">
+        <v>1.27815945389123</v>
+      </c>
+      <c r="DD53" t="n">
+        <v>1.28030141219208</v>
+      </c>
+      <c r="DE53" t="n">
+        <v>1.28230675251448</v>
+      </c>
+      <c r="DF53" t="n">
+        <v>1.28423775771452</v>
+      </c>
+      <c r="DG53" t="n">
+        <v>1.28608758352101</v>
+      </c>
+      <c r="DH53" t="n">
+        <v>1.28784963370288</v>
+      </c>
+      <c r="DI53" t="n">
+        <v>1.28953533172416</v>
+      </c>
+      <c r="DJ53" t="n">
+        <v>1.29110184394252</v>
+      </c>
+      <c r="DK53" t="n">
+        <v>1.29254665907124</v>
+      </c>
+      <c r="DL53" t="n">
+        <v>1.29391041589966</v>
+      </c>
+      <c r="DM53" t="n">
+        <v>1.29515411187801</v>
+      </c>
+      <c r="DN53" t="n">
+        <v>1.29626079084836</v>
+      </c>
+      <c r="DO53" t="n">
+        <v>1.29722944836975</v>
+      </c>
+      <c r="DP53" t="n">
+        <v>1.29808524532668</v>
+      </c>
+      <c r="DQ53" t="n">
+        <v>1.29880025810186</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44190</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.08150847661420579</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0763819818479769</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0753106507173005</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0770258843025545</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0774505659418387</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0780442824914102</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.08009419217625981</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0837910257584603</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0891807166383302</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0968304789292085</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.106956358461184</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.119613639717519</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.134974681468513</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.152812922371101</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.17358231122369</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.195770085450468</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.219778952945474</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.245075911605103</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.271146125491058</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.297577384622662</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.324071534918189</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.350530441565002</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.377199583798809</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.403462353736778</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.429292391836751</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.455522035251399</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.481552676193552</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.507085401631964</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.532380184609189</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0.5576571018902871</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0.582580691239264</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0.606837696443139</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0.630400052100602</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0.654008773928602</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.676853429148609</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0.699890419498955</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0.7209154886067251</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0.742083861234421</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0.763316080465431</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0.7832376964644669</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.802520370620485</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0.821153095667053</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.839126828035049</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0.8564333436673111</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0.873065147220603</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0.889186860728479</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0.904605485447835</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0.919159038134908</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0.932877258631293</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0.946265516319608</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0.959081644149859</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0.971259120484005</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0.982871319933922</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0.994352338492257</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>1.00549089943777</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>1.0162183000237</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.02658631483748</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>1.03697694390526</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.04708548289241</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>1.05738771672337</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.06725077348452</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1.07698995295</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>1.08658048843888</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.09599915556223</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>1.10522415430811</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.11423500149238</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>1.12310752298023</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>1.13163054261187</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>1.13979555674543</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>1.14785401969838</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>1.15560573018184</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>1.16295687404921</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>1.1699044760975</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>1.17666173719676</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>1.18305801228472</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>1.18901798047015</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>1.19460221772808</v>
+      </c>
+      <c r="CB54" t="n">
+        <v>1.1998553112047</v>
+      </c>
+      <c r="CC54" t="n">
+        <v>1.2046531446379</v>
+      </c>
+      <c r="CD54" t="n">
+        <v>1.20918342246871</v>
+      </c>
+      <c r="CE54" t="n">
+        <v>1.213030130157</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>1.21663437593861</v>
+      </c>
+      <c r="CG54" t="n">
+        <v>1.21999578841649</v>
+      </c>
+      <c r="CH54" t="n">
+        <v>1.22293448797725</v>
+      </c>
+      <c r="CI54" t="n">
+        <v>1.2255953720859</v>
+      </c>
+      <c r="CJ54" t="n">
+        <v>1.22800908816248</v>
+      </c>
+      <c r="CK54" t="n">
+        <v>1.2302048793394</v>
+      </c>
+      <c r="CL54" t="n">
+        <v>1.23221066398238</v>
+      </c>
+      <c r="CM54" t="n">
+        <v>1.2340531098683</v>
+      </c>
+      <c r="CN54" t="n">
+        <v>1.23575770343402</v>
+      </c>
+      <c r="CO54" t="n">
+        <v>1.23736575657971</v>
+      </c>
+      <c r="CP54" t="n">
+        <v>1.23886583360482</v>
+      </c>
+      <c r="CQ54" t="n">
+        <v>1.24029829570304</v>
+      </c>
+      <c r="CR54" t="n">
+        <v>1.24169955335259</v>
+      </c>
+      <c r="CS54" t="n">
+        <v>1.24307466781285</v>
+      </c>
+      <c r="CT54" t="n">
+        <v>1.244428968933</v>
+      </c>
+      <c r="CU54" t="n">
+        <v>1.24578113258809</v>
+      </c>
+      <c r="CV54" t="n">
+        <v>1.24719466817657</v>
+      </c>
+      <c r="CW54" t="n">
+        <v>1.2486576166575</v>
+      </c>
+      <c r="CX54" t="n">
+        <v>1.25017009360366</v>
+      </c>
+      <c r="CY54" t="n">
+        <v>1.25174125420495</v>
+      </c>
+      <c r="CZ54" t="n">
+        <v>1.25341438668157</v>
+      </c>
+      <c r="DA54" t="n">
+        <v>1.25511987287655</v>
+      </c>
+      <c r="DB54" t="n">
+        <v>1.25691790609837</v>
+      </c>
+      <c r="DC54" t="n">
+        <v>1.25862025676115</v>
+      </c>
+      <c r="DD54" t="n">
+        <v>1.26038599083913</v>
+      </c>
+      <c r="DE54" t="n">
+        <v>1.26220119748104</v>
+      </c>
+      <c r="DF54" t="n">
+        <v>1.26393639308576</v>
+      </c>
+      <c r="DG54" t="n">
+        <v>1.26563696337013</v>
+      </c>
+      <c r="DH54" t="n">
+        <v>1.26729061054679</v>
+      </c>
+      <c r="DI54" t="n">
+        <v>1.26890263506087</v>
+      </c>
+      <c r="DJ54" t="n">
+        <v>1.27042645614404</v>
+      </c>
+      <c r="DK54" t="n">
+        <v>1.27185354383618</v>
+      </c>
+      <c r="DL54" t="n">
+        <v>1.27321936850079</v>
+      </c>
+      <c r="DM54" t="n">
+        <v>1.27448065801943</v>
+      </c>
+      <c r="DN54" t="n">
+        <v>1.27561535545283</v>
+      </c>
+      <c r="DO54" t="n">
+        <v>1.27661774015255</v>
+      </c>
+      <c r="DP54" t="n">
+        <v>1.27750986030445</v>
+      </c>
+      <c r="DQ54" t="n">
+        <v>1.27825880944035</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0790756253419595</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0760272533219894</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0760200497584821</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0770258843025767</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0759771893482238</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0750042684304361</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.07565368255445321</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0780393847998864</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.08202829669886751</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.08804990905819519</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0964725097890409</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.107446861821529</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.120927317878777</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.136999045016768</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.156277379702873</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.177499849686563</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.20107860778447</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.226332641036977</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.252583274388015</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.279287120456869</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.306052388349909</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.332755809798946</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.359345945261185</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.38606938125601</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.412021645289091</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.438325236484581</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.464092640722151</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.48986737835686</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.515065484213636</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0.539930613407937</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0.564692035116881</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0.589040491703804</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0.612431268621477</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0.635625765080634</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.658585832639891</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0.681515329688414</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0.702478593592476</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0.7236295028681849</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.744899936491869</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0.764918878657571</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.784362323824967</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.80321812813949</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0.821474938268308</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.83912242965629</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0.856151192582316</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.8727293540208489</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0.888488585888132</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0.903767867395583</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.918079181910302</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0.931936415728463</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0.945351238305861</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0.958198035294281</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0.970242580123851</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0.981919809226563</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0.993236555628622</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>1.00408387825168</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.01426093043949</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>1.02413262833912</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.03370267263423</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>1.04307211702976</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.05176585044047</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>1.06010971186039</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>1.06812431147615</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.0758289757597</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>1.08324184586946</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.09037996714877</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>1.09725937063575</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>1.10396676842324</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>1.11030151646126</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>1.11655876083143</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>1.1225436215741</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>1.12839986833643</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>1.13395085761341</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>1.13939521414028</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>1.14473764100101</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>1.14992729273479</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>1.15491944289411</v>
+      </c>
+      <c r="CB55" t="n">
+        <v>1.15977992050774</v>
+      </c>
+      <c r="CC55" t="n">
+        <v>1.16456830478565</v>
+      </c>
+      <c r="CD55" t="n">
+        <v>1.16933876922072</v>
+      </c>
+      <c r="CE55" t="n">
+        <v>1.17369932788544</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>1.17810376998751</v>
+      </c>
+      <c r="CG55" t="n">
+        <v>1.1825429210854</v>
+      </c>
+      <c r="CH55" t="n">
+        <v>1.18673470020171</v>
+      </c>
+      <c r="CI55" t="n">
+        <v>1.19082368585712</v>
+      </c>
+      <c r="CJ55" t="n">
+        <v>1.19481099961889</v>
+      </c>
+      <c r="CK55" t="n">
+        <v>1.19869771166327</v>
+      </c>
+      <c r="CL55" t="n">
+        <v>1.20248484368557</v>
+      </c>
+      <c r="CM55" t="n">
+        <v>1.20617337161478</v>
+      </c>
+      <c r="CN55" t="n">
+        <v>1.20976422814782</v>
+      </c>
+      <c r="CO55" t="n">
+        <v>1.21325830511713</v>
+      </c>
+      <c r="CP55" t="n">
+        <v>1.21669326823198</v>
+      </c>
+      <c r="CQ55" t="n">
+        <v>1.21999526828299</v>
+      </c>
+      <c r="CR55" t="n">
+        <v>1.22320294892486</v>
+      </c>
+      <c r="CS55" t="n">
+        <v>1.22635076286248</v>
+      </c>
+      <c r="CT55" t="n">
+        <v>1.22940367976876</v>
+      </c>
+      <c r="CU55" t="n">
+        <v>1.2322990867363</v>
+      </c>
+      <c r="CV55" t="n">
+        <v>1.23513567255311</v>
+      </c>
+      <c r="CW55" t="n">
+        <v>1.23791106454146</v>
+      </c>
+      <c r="CX55" t="n">
+        <v>1.24059421254359</v>
+      </c>
+      <c r="CY55" t="n">
+        <v>1.24312986483476</v>
+      </c>
+      <c r="CZ55" t="n">
+        <v>1.24560184592164</v>
+      </c>
+      <c r="DA55" t="n">
+        <v>1.24800429696021</v>
+      </c>
+      <c r="DB55" t="n">
+        <v>1.25035570797917</v>
+      </c>
+      <c r="DC55" t="n">
+        <v>1.25245994743324</v>
+      </c>
+      <c r="DD55" t="n">
+        <v>1.25453476301191</v>
+      </c>
+      <c r="DE55" t="n">
+        <v>1.25656749264196</v>
+      </c>
+      <c r="DF55" t="n">
+        <v>1.25842604090138</v>
+      </c>
+      <c r="DG55" t="n">
+        <v>1.26017483114725</v>
+      </c>
+      <c r="DH55" t="n">
+        <v>1.2618117443727</v>
+      </c>
+      <c r="DI55" t="n">
+        <v>1.26333473767526</v>
+      </c>
+      <c r="DJ55" t="n">
+        <v>1.26475665264736</v>
+      </c>
+      <c r="DK55" t="n">
+        <v>1.26603115328599</v>
+      </c>
+      <c r="DL55" t="n">
+        <v>1.26721302327557</v>
+      </c>
+      <c r="DM55" t="n">
+        <v>1.26825997149647</v>
+      </c>
+      <c r="DN55" t="n">
+        <v>1.26919325769689</v>
+      </c>
+      <c r="DO55" t="n">
+        <v>1.26998284568411</v>
+      </c>
+      <c r="DP55" t="n">
+        <v>1.2706555257179</v>
+      </c>
+      <c r="DQ55" t="n">
+        <v>1.27120556472628</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44204</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0780619798936225</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.07481112283574511</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0737400761962882</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.07398651480497311</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.07541146647824309</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0784042387770495</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.08338679204035809</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0913431072746293</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.102601183272715</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.117284306471843</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.135221383519666</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.156078552064323</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.179413339307531</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.205145076770896</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.234282520846241</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.263830978702929</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.295416262131912</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.328291398071665</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.362425684371948</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.396370707397917</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.430976548799471</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.465599982660721</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.500383791958491</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.534375623436282</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.5674283532407171</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.600139444338498</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.632365573129591</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.663638631503211</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.693567466268205</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0.7225292460642671</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0.750878008810099</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0.778336108383702</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0.804374186525677</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0.829908131049598</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.854942634420759</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0.8797403243406819</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0.9022631686261881</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0.924871288076401</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.947753511847967</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0.968771029761779</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.98937944943772</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.00932963294327</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.02881304483976</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.04719060138853</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.06507262373948</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.0822385742429</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>1.09885355056004</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>1.11471406023944</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>1.12950034685069</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>1.14376192032001</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.15752983377126</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.17069420113574</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>1.18303329367484</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.19500906668307</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>1.2066444261999</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>1.21784233674781</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.22840682698964</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>1.2387276091652</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.24882231280767</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>1.25881300633841</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1.26819659232893</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>1.27730526160724</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>1.28623927606504</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.29471604996047</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>1.30302657131598</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.31107902269531</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>1.31896129038582</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>1.32650543493275</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>1.33372286855363</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>1.34077695725401</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>1.34766251212193</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>1.35430343016395</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>1.36056577736925</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>1.36666458494778</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>1.37259443100396</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>1.37828921877681</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>1.38369293033592</v>
+      </c>
+      <c r="CB56" t="n">
+        <v>1.3888706574038</v>
+      </c>
+      <c r="CC56" t="n">
+        <v>1.39387743098619</v>
+      </c>
+      <c r="CD56" t="n">
+        <v>1.39875829204683</v>
+      </c>
+      <c r="CE56" t="n">
+        <v>1.40311581814445</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>1.4074172030204</v>
+      </c>
+      <c r="CG56" t="n">
+        <v>1.41169902055993</v>
+      </c>
+      <c r="CH56" t="n">
+        <v>1.41557100631589</v>
+      </c>
+      <c r="CI56" t="n">
+        <v>1.41931494959936</v>
+      </c>
+      <c r="CJ56" t="n">
+        <v>1.42289767595858</v>
+      </c>
+      <c r="CK56" t="n">
+        <v>1.42636643445719</v>
+      </c>
+      <c r="CL56" t="n">
+        <v>1.42962035925768</v>
+      </c>
+      <c r="CM56" t="n">
+        <v>1.43277961233723</v>
+      </c>
+      <c r="CN56" t="n">
+        <v>1.43581629147305</v>
+      </c>
+      <c r="CO56" t="n">
+        <v>1.43877052715038</v>
+      </c>
+      <c r="CP56" t="n">
+        <v>1.44158641184659</v>
+      </c>
+      <c r="CQ56" t="n">
+        <v>1.44430455143816</v>
+      </c>
+      <c r="CR56" t="n">
+        <v>1.4469324957517</v>
+      </c>
+      <c r="CS56" t="n">
+        <v>1.44950500982366</v>
+      </c>
+      <c r="CT56" t="n">
+        <v>1.45199988965641</v>
+      </c>
+      <c r="CU56" t="n">
+        <v>1.45437200753998</v>
+      </c>
+      <c r="CV56" t="n">
+        <v>1.45670791461921</v>
+      </c>
+      <c r="CW56" t="n">
+        <v>1.45901175412469</v>
+      </c>
+      <c r="CX56" t="n">
+        <v>1.46126358659667</v>
+      </c>
+      <c r="CY56" t="n">
+        <v>1.46342016383807</v>
+      </c>
+      <c r="CZ56" t="n">
+        <v>1.46555042887331</v>
+      </c>
+      <c r="DA56" t="n">
+        <v>1.46764675687176</v>
+      </c>
+      <c r="DB56" t="n">
+        <v>1.46972306744592</v>
+      </c>
+      <c r="DC56" t="n">
+        <v>1.47160150377977</v>
+      </c>
+      <c r="DD56" t="n">
+        <v>1.47347238997327</v>
+      </c>
+      <c r="DE56" t="n">
+        <v>1.47534248075563</v>
+      </c>
+      <c r="DF56" t="n">
+        <v>1.47703099304961</v>
+      </c>
+      <c r="DG56" t="n">
+        <v>1.47865132642185</v>
+      </c>
+      <c r="DH56" t="n">
+        <v>1.48017976969409</v>
+      </c>
+      <c r="DI56" t="n">
+        <v>1.48162718614062</v>
+      </c>
+      <c r="DJ56" t="n">
+        <v>1.48295790133664</v>
+      </c>
+      <c r="DK56" t="n">
+        <v>1.48417126837147</v>
+      </c>
+      <c r="DL56" t="n">
+        <v>1.48529040371721</v>
+      </c>
+      <c r="DM56" t="n">
+        <v>1.48630792663389</v>
+      </c>
+      <c r="DN56" t="n">
+        <v>1.4872071904388</v>
+      </c>
+      <c r="DO56" t="n">
+        <v>1.48796900469905</v>
+      </c>
+      <c r="DP56" t="n">
+        <v>1.48861736990894</v>
+      </c>
+      <c r="DQ56" t="n">
+        <v>1.48914492731096</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0793797301888203</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0760273362677177</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0749205991006924</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.07297336859422381</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.07336267920831289</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.07500421795867369</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0771420469348183</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0810815431797815</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0877262368639125</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.09767040158229361</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.111236921392967</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.128898081288443</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.149624117175927</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.173375402537898</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.199623607550517</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.228294018914181</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.258084732469529</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.289565528733275</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.322066193533838</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.355676481963901</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.389041998345576</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.42296768699745</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.457181502610177</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.491075237405987</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.523732174138216</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.556087924803374</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.587980038530456</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.6189265528848999</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.648526490198436</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0.677156681325509</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.705176016469902</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0.732898729668284</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0.758066298715779</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0.78333226689137</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.808657499072204</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0.832715647019712</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0.8555818033643831</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0.878054323935789</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.899898048456362</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0.921363347340018</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.94177164245476</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.96179423456052</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>0.981176097458215</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.00009644613585</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.01812308468851</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.03544646451118</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>1.05222768393083</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.06825606429593</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>1.08320287458562</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>1.09761931795927</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.11153384136878</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.12483259711294</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>1.13728936483898</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.1493684285759</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>1.16109044564835</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.17259559331198</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.18296540173712</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>1.19331028712984</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.20362140717771</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>1.21337155238995</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.22260468428896</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>1.23164394552689</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>1.24039205020876</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.24894698077411</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>1.25704052895141</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.26495280064639</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>1.27268031397671</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>1.28013988720852</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>1.28718279879187</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>1.29405255934348</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>1.30074518078077</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>1.30718794791367</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>1.31325267742203</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>1.31914908375083</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>1.32487282776553</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>1.33036115010779</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>1.33556132857795</v>
+      </c>
+      <c r="CB57" t="n">
+        <v>1.34053718983629</v>
+      </c>
+      <c r="CC57" t="n">
+        <v>1.34544449202135</v>
+      </c>
+      <c r="CD57" t="n">
+        <v>1.35002125436814</v>
+      </c>
+      <c r="CE57" t="n">
+        <v>1.35428630169987</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>1.35839692695456</v>
+      </c>
+      <c r="CG57" t="n">
+        <v>1.36231771959832</v>
+      </c>
+      <c r="CH57" t="n">
+        <v>1.36610139682461</v>
+      </c>
+      <c r="CI57" t="n">
+        <v>1.36963930003262</v>
+      </c>
+      <c r="CJ57" t="n">
+        <v>1.37306340032763</v>
+      </c>
+      <c r="CK57" t="n">
+        <v>1.37634435873517</v>
+      </c>
+      <c r="CL57" t="n">
+        <v>1.37952643661666</v>
+      </c>
+      <c r="CM57" t="n">
+        <v>1.38251785034875</v>
+      </c>
+      <c r="CN57" t="n">
+        <v>1.38542974848765</v>
+      </c>
+      <c r="CO57" t="n">
+        <v>1.38826758925558</v>
+      </c>
+      <c r="CP57" t="n">
+        <v>1.39100770341491</v>
+      </c>
+      <c r="CQ57" t="n">
+        <v>1.39363028137782</v>
+      </c>
+      <c r="CR57" t="n">
+        <v>1.39617354260045</v>
+      </c>
+      <c r="CS57" t="n">
+        <v>1.39867186924918</v>
+      </c>
+      <c r="CT57" t="n">
+        <v>1.401104405953</v>
+      </c>
+      <c r="CU57" t="n">
+        <v>1.4034273255706</v>
+      </c>
+      <c r="CV57" t="n">
+        <v>1.4057256587076</v>
+      </c>
+      <c r="CW57" t="n">
+        <v>1.40800426190972</v>
+      </c>
+      <c r="CX57" t="n">
+        <v>1.41029228346566</v>
+      </c>
+      <c r="CY57" t="n">
+        <v>1.41240132930158</v>
+      </c>
+      <c r="CZ57" t="n">
+        <v>1.41454361071013</v>
+      </c>
+      <c r="DA57" t="n">
+        <v>1.41670726223122</v>
+      </c>
+      <c r="DB57" t="n">
+        <v>1.41876875254209</v>
+      </c>
+      <c r="DC57" t="n">
+        <v>1.42072467746332</v>
+      </c>
+      <c r="DD57" t="n">
+        <v>1.42263452448319</v>
+      </c>
+      <c r="DE57" t="n">
+        <v>1.42446970248506</v>
+      </c>
+      <c r="DF57" t="n">
+        <v>1.42624274830146</v>
+      </c>
+      <c r="DG57" t="n">
+        <v>1.42789120770351</v>
+      </c>
+      <c r="DH57" t="n">
+        <v>1.42946567582937</v>
+      </c>
+      <c r="DI57" t="n">
+        <v>1.43095739001874</v>
+      </c>
+      <c r="DJ57" t="n">
+        <v>1.43234293189993</v>
+      </c>
+      <c r="DK57" t="n">
+        <v>1.43359043816131</v>
+      </c>
+      <c r="DL57" t="n">
+        <v>1.4347382832717</v>
+      </c>
+      <c r="DM57" t="n">
+        <v>1.43577776336374</v>
+      </c>
+      <c r="DN57" t="n">
+        <v>1.43669077202194</v>
+      </c>
+      <c r="DO57" t="n">
+        <v>1.43745705635181</v>
+      </c>
+      <c r="DP57" t="n">
+        <v>1.43809991894203</v>
+      </c>
+      <c r="DQ57" t="n">
+        <v>1.4386106844305</v>
       </c>
     </row>
   </sheetData>
@@ -17238,7 +21253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ46"/>
+  <dimension ref="A1:DQ57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17248,364 +21263,364 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AK1" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AL1" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AM1" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AP1" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AQ1" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AR1" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AS1" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AT1" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AV1" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AZ1" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BB1" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BC1" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BD1" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BE1" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BF1" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BG1" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BH1" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BI1" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BJ1" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BK1" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BL1" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BM1" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BN1" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BO1" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BP1" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BQ1" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BR1" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BS1" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BT1" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BU1" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BV1" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BW1" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BX1" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BY1" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BZ1" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="BZ1" s="1" t="n">
+      <c r="CA1" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="CA1" s="1" t="n">
+      <c r="CB1" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="CB1" s="1" t="n">
+      <c r="CC1" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="CC1" s="1" t="n">
+      <c r="CD1" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CE1" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CF1" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CG1" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CH1" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="CH1" s="1" t="n">
+      <c r="CI1" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="CI1" s="1" t="n">
+      <c r="CJ1" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="CJ1" s="1" t="n">
+      <c r="CK1" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="CK1" s="1" t="n">
+      <c r="CL1" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CM1" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="CM1" s="1" t="n">
+      <c r="CN1" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="CN1" s="1" t="n">
+      <c r="CO1" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="CO1" s="1" t="n">
+      <c r="CP1" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="CP1" s="1" t="n">
+      <c r="CQ1" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CR1" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="CR1" s="1" t="n">
+      <c r="CS1" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="CS1" s="1" t="n">
+      <c r="CT1" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="CT1" s="1" t="n">
+      <c r="CU1" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="CU1" s="1" t="n">
+      <c r="CV1" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="CW1" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="CW1" s="1" t="n">
+      <c r="CX1" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="CX1" s="1" t="n">
+      <c r="CY1" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="CY1" s="1" t="n">
+      <c r="CZ1" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="CZ1" s="1" t="n">
+      <c r="DA1" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="DA1" s="1" t="n">
+      <c r="DB1" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="DB1" s="1" t="n">
+      <c r="DC1" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="DC1" s="1" t="n">
+      <c r="DD1" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="DD1" s="1" t="n">
+      <c r="DE1" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="DE1" s="1" t="n">
+      <c r="DF1" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="DF1" s="1" t="n">
+      <c r="DG1" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="DG1" s="1" t="n">
+      <c r="DH1" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="DH1" s="1" t="n">
+      <c r="DI1" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="DI1" s="1" t="n">
+      <c r="DJ1" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="DJ1" s="1" t="n">
+      <c r="DK1" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="DK1" s="1" t="n">
+      <c r="DL1" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="DL1" s="1" t="n">
+      <c r="DM1" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="DM1" s="1" t="n">
+      <c r="DN1" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="DN1" s="1" t="n">
+      <c r="DO1" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="DO1" s="1" t="n">
+      <c r="DP1" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="DP1" s="1" t="n">
+      <c r="DQ1" s="1" t="n">
         <v>357</v>
-      </c>
-      <c r="DQ1" s="1" t="n">
-        <v>360</v>
       </c>
     </row>
     <row r="2">
@@ -34031,6 +38046,4021 @@
       </c>
       <c r="DQ46" t="n">
         <v>1.16305613</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44141</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.08344500139354789</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.07126823073172291</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0618176061688376</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0594717857151252</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0479436439355952</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.041685024488113</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0453199029418229</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0565922932493526</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0749272691879883</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.100037974968185</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.132286284767228</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.172325567075244</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.219850059405842</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.272245681523959</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.327368630489835</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.389201006676532</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.453827236119584</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.515288313766633</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.575389611159539</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.632725689843595</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.686740195326677</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.738494573658155</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.787750732918243</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.834476180643237</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.879152283078676</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.920556599748323</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.959522558981226</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.996547253892142</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1.03117831656716</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.06391064385063</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.09546992690457</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.12609454810831</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.1558070730594</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.18399562563783</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.20955697090939</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.23565198358518</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.26032526072383</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.28275929316015</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.30408852922846</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.32487366489136</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.34399137787595</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1.36024466740356</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1.37429180100426</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.38569428532414</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1.39432141247515</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.4003609539559</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.40388245098692</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>1.40473183501239</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1.40333857652676</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>1.40167999367542</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>1.40056810608735</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.39974424517569</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.39931424557689</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1.39919300213328</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.39961794929863</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>1.40035668729384</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>1.40155898235146</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.40301624490355</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>1.40486726282188</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.40729292270784</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>1.40980730457936</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1.41188381792562</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>1.41349949905291</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>1.41454694412315</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.41496971777976</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>1.41480710152981</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.41419135772822</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>1.41295896332986</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>1.41114158956873</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>1.40871221297694</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>1.40588899339263</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>1.40236673436523</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>1.3982699626346</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>1.3936001687604</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>1.38853307303878</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>1.38273161288398</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>1.37635572620423</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>1.36943306976391</v>
+      </c>
+      <c r="CB47" t="n">
+        <v>1.36205047432455</v>
+      </c>
+      <c r="CC47" t="n">
+        <v>1.35390206475473</v>
+      </c>
+      <c r="CD47" t="n">
+        <v>1.34517615056634</v>
+      </c>
+      <c r="CE47" t="n">
+        <v>1.33714896100636</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>1.32967987004711</v>
+      </c>
+      <c r="CG47" t="n">
+        <v>1.32227547910892</v>
+      </c>
+      <c r="CH47" t="n">
+        <v>1.31548628597124</v>
+      </c>
+      <c r="CI47" t="n">
+        <v>1.30932135673237</v>
+      </c>
+      <c r="CJ47" t="n">
+        <v>1.30354067788706</v>
+      </c>
+      <c r="CK47" t="n">
+        <v>1.29823784154541</v>
+      </c>
+      <c r="CL47" t="n">
+        <v>1.29341598424419</v>
+      </c>
+      <c r="CM47" t="n">
+        <v>1.28901615982846</v>
+      </c>
+      <c r="CN47" t="n">
+        <v>1.28518325492236</v>
+      </c>
+      <c r="CO47" t="n">
+        <v>1.28177633862198</v>
+      </c>
+      <c r="CP47" t="n">
+        <v>1.27881275663912</v>
+      </c>
+      <c r="CQ47" t="n">
+        <v>1.27631085566389</v>
+      </c>
+      <c r="CR47" t="n">
+        <v>1.27437402031844</v>
+      </c>
+      <c r="CS47" t="n">
+        <v>1.27285007229206</v>
+      </c>
+      <c r="CT47" t="n">
+        <v>1.27180949147108</v>
+      </c>
+      <c r="CU47" t="n">
+        <v>1.27118892880683</v>
+      </c>
+      <c r="CV47" t="n">
+        <v>1.2711732023111</v>
+      </c>
+      <c r="CW47" t="n">
+        <v>1.27156694539915</v>
+      </c>
+      <c r="CX47" t="n">
+        <v>1.27230676596912</v>
+      </c>
+      <c r="CY47" t="n">
+        <v>1.27236878066526</v>
+      </c>
+      <c r="CZ47" t="n">
+        <v>1.27177088174731</v>
+      </c>
+      <c r="DA47" t="n">
+        <v>1.27037858556689</v>
+      </c>
+      <c r="DB47" t="n">
+        <v>1.26803486666184</v>
+      </c>
+      <c r="DC47" t="n">
+        <v>1.26506261185571</v>
+      </c>
+      <c r="DD47" t="n">
+        <v>1.26142335789785</v>
+      </c>
+      <c r="DE47" t="n">
+        <v>1.25673502996306</v>
+      </c>
+      <c r="DF47" t="n">
+        <v>1.25133977347905</v>
+      </c>
+      <c r="DG47" t="n">
+        <v>1.24530722678363</v>
+      </c>
+      <c r="DH47" t="n">
+        <v>1.23840397185588</v>
+      </c>
+      <c r="DI47" t="n">
+        <v>1.23073766595108</v>
+      </c>
+      <c r="DJ47" t="n">
+        <v>1.22219634105763</v>
+      </c>
+      <c r="DK47" t="n">
+        <v>1.21295945351342</v>
+      </c>
+      <c r="DL47" t="n">
+        <v>1.20307152681267</v>
+      </c>
+      <c r="DM47" t="n">
+        <v>1.19217116750645</v>
+      </c>
+      <c r="DN47" t="n">
+        <v>1.18047594736673</v>
+      </c>
+      <c r="DO47" t="n">
+        <v>1.16814127402559</v>
+      </c>
+      <c r="DP47" t="n">
+        <v>1.15514694516674</v>
+      </c>
+      <c r="DQ47" t="n">
+        <v>1.14109349889899</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0839999988675262</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0738155174421854</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0709154634944263</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.06718064836908549</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0696553594261187</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0784733287278879</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0912513250681535</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.106228779614574</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.123793171881121</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.148473792666313</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.181972332663067</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.224989813271319</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.277023970604013</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.332371656681918</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.388193272528712</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.449153037581881</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.510858707094166</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.572158041026771</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.632431602292258</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.6916574007459531</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.749530255788606</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.804737321710469</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.856970694878976</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.906191756804219</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.952903086927429</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.995826003203258</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.03584493712357</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.07344824045949</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1.10819791456023</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.14064144021748</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.17150961038524</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1.20101443396783</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.22933869862207</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1.25549697808269</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.27868454329822</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.30181070933882</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.32313238335388</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.34232964057608</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.35965585203003</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.37593264856782</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.39017003960351</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.4023298260418</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1.41248230266562</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.42047520352037</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>1.4263591006306</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.43008101903392</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.43179953840923</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>1.43133940099123</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.42914932211429</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>1.42699092073153</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1.42555999133743</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.42458640939228</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.42418627530511</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>1.42426620353548</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.42507295054938</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>1.42637446002913</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>1.42837123036772</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.43069963009479</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>1.43361217227467</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.43728925105239</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>1.44123115984221</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.4445951008808</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>1.44735107534684</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>1.44932932824885</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.45058642798229</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>1.4510652688422</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.45093714421713</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>1.45003075878676</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>1.44838132532756</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>1.44595458327141</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>1.44298470013483</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>1.43914809187766</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>1.43457445117584</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>1.42927324986126</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>1.42342500848544</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>1.41666447170783</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>1.40916702906832</v>
+      </c>
+      <c r="CA48" t="n">
+        <v>1.40097304972899</v>
+      </c>
+      <c r="CB48" t="n">
+        <v>1.39216445804599</v>
+      </c>
+      <c r="CC48" t="n">
+        <v>1.38241486039568</v>
+      </c>
+      <c r="CD48" t="n">
+        <v>1.37202548040942</v>
+      </c>
+      <c r="CE48" t="n">
+        <v>1.36225141127593</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>1.35346345163324</v>
+      </c>
+      <c r="CG48" t="n">
+        <v>1.34476901354937</v>
+      </c>
+      <c r="CH48" t="n">
+        <v>1.33695529171833</v>
+      </c>
+      <c r="CI48" t="n">
+        <v>1.32972716097104</v>
+      </c>
+      <c r="CJ48" t="n">
+        <v>1.32323526757059</v>
+      </c>
+      <c r="CK48" t="n">
+        <v>1.31732889861267</v>
+      </c>
+      <c r="CL48" t="n">
+        <v>1.31205825245211</v>
+      </c>
+      <c r="CM48" t="n">
+        <v>1.30737471125908</v>
+      </c>
+      <c r="CN48" t="n">
+        <v>1.30342402920964</v>
+      </c>
+      <c r="CO48" t="n">
+        <v>1.30006041019129</v>
+      </c>
+      <c r="CP48" t="n">
+        <v>1.29730598314154</v>
+      </c>
+      <c r="CQ48" t="n">
+        <v>1.29517290206769</v>
+      </c>
+      <c r="CR48" t="n">
+        <v>1.29377085938598</v>
+      </c>
+      <c r="CS48" t="n">
+        <v>1.29295129764812</v>
+      </c>
+      <c r="CT48" t="n">
+        <v>1.29278138639296</v>
+      </c>
+      <c r="CU48" t="n">
+        <v>1.29317674888701</v>
+      </c>
+      <c r="CV48" t="n">
+        <v>1.294343440427</v>
+      </c>
+      <c r="CW48" t="n">
+        <v>1.29610130384852</v>
+      </c>
+      <c r="CX48" t="n">
+        <v>1.29838380544019</v>
+      </c>
+      <c r="CY48" t="n">
+        <v>1.29983982573982</v>
+      </c>
+      <c r="CZ48" t="n">
+        <v>1.30053310787376</v>
+      </c>
+      <c r="DA48" t="n">
+        <v>1.30038382839972</v>
+      </c>
+      <c r="DB48" t="n">
+        <v>1.29922717440388</v>
+      </c>
+      <c r="DC48" t="n">
+        <v>1.29720715575585</v>
+      </c>
+      <c r="DD48" t="n">
+        <v>1.29451649824522</v>
+      </c>
+      <c r="DE48" t="n">
+        <v>1.29066901119811</v>
+      </c>
+      <c r="DF48" t="n">
+        <v>1.2860607576107</v>
+      </c>
+      <c r="DG48" t="n">
+        <v>1.28053089059597</v>
+      </c>
+      <c r="DH48" t="n">
+        <v>1.2742111282858</v>
+      </c>
+      <c r="DI48" t="n">
+        <v>1.26696983202822</v>
+      </c>
+      <c r="DJ48" t="n">
+        <v>1.25875685090069</v>
+      </c>
+      <c r="DK48" t="n">
+        <v>1.24974004990823</v>
+      </c>
+      <c r="DL48" t="n">
+        <v>1.23998061736455</v>
+      </c>
+      <c r="DM48" t="n">
+        <v>1.22910628503742</v>
+      </c>
+      <c r="DN48" t="n">
+        <v>1.21733522698219</v>
+      </c>
+      <c r="DO48" t="n">
+        <v>1.20482322490446</v>
+      </c>
+      <c r="DP48" t="n">
+        <v>1.19155971564531</v>
+      </c>
+      <c r="DQ48" t="n">
+        <v>1.17712822015616</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44155</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.074000000953618</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0668693708356998</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.06305917455076809</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0600342510089442</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.06252986445970631</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0723635249566584</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0877337112283786</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.103472685338226</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.119330901522376</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.140014467407695</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.16866471607551</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.205481538774547</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.250227634507266</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.300757953835662</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.354121432099088</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.415065492112107</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.478207393017598</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.537874682326732</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.592802198518225</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.64128411125118</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.685710813851487</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.728608646655458</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.770513831478849</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.810744442503909</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.850862922993504</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.889304339155333</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.92682125940683</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.963919502019239</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.999837326077615</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.03342788494985</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.06494796727112</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1.0946307571753</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.12246174660191</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1.14801295027721</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.16993648635489</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.19126032854703</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.21029438953929</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.2268055270519</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.2409369332944</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.25345212764933</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.26374929842859</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1.27275853676612</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1.28073931046889</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1.287449594628</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.29313129140028</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.2976590050485</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.30116677981398</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>1.30354020600027</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1.30493099538749</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>1.30596289452007</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>1.30707765540098</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.30810761380321</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.3090861284027</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>1.30981336425036</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.31069152946923</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>1.31145158523556</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>1.31220583966547</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.31280270768948</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>1.31334947263202</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.31392167503262</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>1.31428300889387</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.31434706529545</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>1.31401211869317</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>1.31329557301429</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.31218002690663</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>1.31063843907411</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.30874626703566</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>1.30647423247822</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>1.30375420891331</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>1.30061711259786</v>
+      </c>
+      <c r="BT49" t="n">
+        <v>1.29722983629384</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>1.29331736844779</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>1.28900307347452</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>1.28429949820981</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>1.27934228197982</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>1.27382681227337</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>1.26783829343271</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>1.26164452453743</v>
+      </c>
+      <c r="CB49" t="n">
+        <v>1.25505557080254</v>
+      </c>
+      <c r="CC49" t="n">
+        <v>1.2479137985748</v>
+      </c>
+      <c r="CD49" t="n">
+        <v>1.24039907389015</v>
+      </c>
+      <c r="CE49" t="n">
+        <v>1.23332560896984</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>1.22681267787205</v>
+      </c>
+      <c r="CG49" t="n">
+        <v>1.22030329404414</v>
+      </c>
+      <c r="CH49" t="n">
+        <v>1.21435440808135</v>
+      </c>
+      <c r="CI49" t="n">
+        <v>1.20878034670783</v>
+      </c>
+      <c r="CJ49" t="n">
+        <v>1.20352604127422</v>
+      </c>
+      <c r="CK49" t="n">
+        <v>1.19875663493861</v>
+      </c>
+      <c r="CL49" t="n">
+        <v>1.19430695583222</v>
+      </c>
+      <c r="CM49" t="n">
+        <v>1.19019068957457</v>
+      </c>
+      <c r="CN49" t="n">
+        <v>1.18649330807384</v>
+      </c>
+      <c r="CO49" t="n">
+        <v>1.18320647590592</v>
+      </c>
+      <c r="CP49" t="n">
+        <v>1.18022545630119</v>
+      </c>
+      <c r="CQ49" t="n">
+        <v>1.17761445397404</v>
+      </c>
+      <c r="CR49" t="n">
+        <v>1.17545651294315</v>
+      </c>
+      <c r="CS49" t="n">
+        <v>1.173626673632</v>
+      </c>
+      <c r="CT49" t="n">
+        <v>1.17217021370212</v>
+      </c>
+      <c r="CU49" t="n">
+        <v>1.17104077931728</v>
+      </c>
+      <c r="CV49" t="n">
+        <v>1.17040955803446</v>
+      </c>
+      <c r="CW49" t="n">
+        <v>1.17008865881414</v>
+      </c>
+      <c r="CX49" t="n">
+        <v>1.17003202542947</v>
+      </c>
+      <c r="CY49" t="n">
+        <v>1.16941995803356</v>
+      </c>
+      <c r="CZ49" t="n">
+        <v>1.16826574670757</v>
+      </c>
+      <c r="DA49" t="n">
+        <v>1.16640994720352</v>
+      </c>
+      <c r="DB49" t="n">
+        <v>1.16380061911807</v>
+      </c>
+      <c r="DC49" t="n">
+        <v>1.16062449742042</v>
+      </c>
+      <c r="DD49" t="n">
+        <v>1.15692394197369</v>
+      </c>
+      <c r="DE49" t="n">
+        <v>1.1523178309733</v>
+      </c>
+      <c r="DF49" t="n">
+        <v>1.1471873275916</v>
+      </c>
+      <c r="DG49" t="n">
+        <v>1.14140541042273</v>
+      </c>
+      <c r="DH49" t="n">
+        <v>1.13489779438017</v>
+      </c>
+      <c r="DI49" t="n">
+        <v>1.1278874531417</v>
+      </c>
+      <c r="DJ49" t="n">
+        <v>1.12006285180285</v>
+      </c>
+      <c r="DK49" t="n">
+        <v>1.11166667916245</v>
+      </c>
+      <c r="DL49" t="n">
+        <v>1.10272573906497</v>
+      </c>
+      <c r="DM49" t="n">
+        <v>1.09292596021135</v>
+      </c>
+      <c r="DN49" t="n">
+        <v>1.08246064830472</v>
+      </c>
+      <c r="DO49" t="n">
+        <v>1.07147065826596</v>
+      </c>
+      <c r="DP49" t="n">
+        <v>1.05992879584768</v>
+      </c>
+      <c r="DQ49" t="n">
+        <v>1.04743410531717</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.07899999991058949</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0705883377168298</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0695018860493289</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0689507069513063</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.07055873005086261</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0733950065985698</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0775698746142984</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.08719922926705651</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.103576896753577</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.128695574627136</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.163379034565551</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.20714817622315</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.258334268614418</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.310967627780445</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.362430957002579</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.411638919513692</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.459577892927742</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.511784141040163</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.5681890242004159</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.6294117731761329</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.692660417859372</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.7540310008514211</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.810553836793476</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.862844397417481</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.910084473660699</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.953118310212797</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.992031208458183</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.02615431147284</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1.05610624014322</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.08448616170702</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.11184423393988</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.13788036303709</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.1624955935142</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1.186162896384</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.20931292225715</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.23100879518332</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.25094390567237</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.26972460923507</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.28796112317821</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.30475862776831</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.32006668716185</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.33392839873042</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.34584478984837</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.35594530775909</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>1.36408614229366</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.37053946960336</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.37512553575263</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>1.37779390591702</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.37887309994547</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>1.37966578867261</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>1.38036175648312</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.38097548421586</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.38153111292869</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.38211807571778</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.38260585342539</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>1.38301244356958</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>1.38336321249444</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.38374438618555</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>1.38410767247689</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.38422998338659</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>1.38435881981295</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.38424615284673</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>1.38379177550663</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>1.38299074776662</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.38191772334864</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>1.3805368126201</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.37882122341418</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>1.37675230485219</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>1.37439233147436</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>1.37178270892077</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>1.36877151129161</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>1.36543148885643</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>1.36181442880856</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>1.35793932334065</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>1.35364973516703</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>1.34903892384026</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>1.34416222285595</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>1.33896550566198</v>
+      </c>
+      <c r="CB50" t="n">
+        <v>1.33337378492083</v>
+      </c>
+      <c r="CC50" t="n">
+        <v>1.32731193106137</v>
+      </c>
+      <c r="CD50" t="n">
+        <v>1.3213228458821</v>
+      </c>
+      <c r="CE50" t="n">
+        <v>1.31562758224896</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>1.30989508683713</v>
+      </c>
+      <c r="CG50" t="n">
+        <v>1.30458732289482</v>
+      </c>
+      <c r="CH50" t="n">
+        <v>1.29968860560515</v>
+      </c>
+      <c r="CI50" t="n">
+        <v>1.29503509630183</v>
+      </c>
+      <c r="CJ50" t="n">
+        <v>1.2906867443594</v>
+      </c>
+      <c r="CK50" t="n">
+        <v>1.28659622505798</v>
+      </c>
+      <c r="CL50" t="n">
+        <v>1.28289407571459</v>
+      </c>
+      <c r="CM50" t="n">
+        <v>1.27945648254648</v>
+      </c>
+      <c r="CN50" t="n">
+        <v>1.27631796444246</v>
+      </c>
+      <c r="CO50" t="n">
+        <v>1.27344435983429</v>
+      </c>
+      <c r="CP50" t="n">
+        <v>1.27091246336431</v>
+      </c>
+      <c r="CQ50" t="n">
+        <v>1.26869417709322</v>
+      </c>
+      <c r="CR50" t="n">
+        <v>1.26674922086497</v>
+      </c>
+      <c r="CS50" t="n">
+        <v>1.26509893541438</v>
+      </c>
+      <c r="CT50" t="n">
+        <v>1.263767286658</v>
+      </c>
+      <c r="CU50" t="n">
+        <v>1.2627972441179</v>
+      </c>
+      <c r="CV50" t="n">
+        <v>1.26207858663812</v>
+      </c>
+      <c r="CW50" t="n">
+        <v>1.26164804523724</v>
+      </c>
+      <c r="CX50" t="n">
+        <v>1.26137749446809</v>
+      </c>
+      <c r="CY50" t="n">
+        <v>1.26064777902329</v>
+      </c>
+      <c r="CZ50" t="n">
+        <v>1.25916944343114</v>
+      </c>
+      <c r="DA50" t="n">
+        <v>1.2567975897692</v>
+      </c>
+      <c r="DB50" t="n">
+        <v>1.25387017627982</v>
+      </c>
+      <c r="DC50" t="n">
+        <v>1.25032504960726</v>
+      </c>
+      <c r="DD50" t="n">
+        <v>1.24579719719294</v>
+      </c>
+      <c r="DE50" t="n">
+        <v>1.24063059437781</v>
+      </c>
+      <c r="DF50" t="n">
+        <v>1.23486055088215</v>
+      </c>
+      <c r="DG50" t="n">
+        <v>1.22829416324291</v>
+      </c>
+      <c r="DH50" t="n">
+        <v>1.22102282837791</v>
+      </c>
+      <c r="DI50" t="n">
+        <v>1.21296742505774</v>
+      </c>
+      <c r="DJ50" t="n">
+        <v>1.20428597625253</v>
+      </c>
+      <c r="DK50" t="n">
+        <v>1.19489841217638</v>
+      </c>
+      <c r="DL50" t="n">
+        <v>1.18463815803607</v>
+      </c>
+      <c r="DM50" t="n">
+        <v>1.17368708339954</v>
+      </c>
+      <c r="DN50" t="n">
+        <v>1.16214200467137</v>
+      </c>
+      <c r="DO50" t="n">
+        <v>1.14987097999017</v>
+      </c>
+      <c r="DP50" t="n">
+        <v>1.13669862681969</v>
+      </c>
+      <c r="DQ50" t="n">
+        <v>1.12285316562398</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0815000012517331</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.07346318363684549</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.07643224567368261</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.08462604641661201</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.08555381860899661</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0932881809383832</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.11032249938948</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.130581590546465</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.153164484757529</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.182361015249705</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.219602579699296</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.264353953221905</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.316480371790448</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.377150310705358</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.44585487300678</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.520184285554534</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.600357246435489</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.677817802851303</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.749427604022997</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.815268679289765</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.876416774429731</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.934274016377955</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.9885822230632479</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.03993249193998</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.08751728247283</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1.13219552784772</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.17406296934333</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.21241874170826</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1.24763789171184</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.28135853462623</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.31384535933832</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.34474141689699</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.37393306522391</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.40199368826896</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.4292561829649</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.45481394782451</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.47865287458258</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.5008493363686</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.52235395184654</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.54192969367596</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.56006407510639</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1.57582482484345</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1.58873625421206</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.59884130806906</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>1.60631736017022</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.61112033061666</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.61313805837884</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>1.61234830019593</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1.60936711625688</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>1.6065025391054</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>1.60416743544974</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.6024418511086</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.60135580656568</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.60099502084378</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.60119192318473</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>1.60198458984528</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>1.60338905117055</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.60553292343503</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>1.60836793852595</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.61165258903349</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>1.61542087927756</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.61880991147498</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1.62148317837934</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>1.62345118365901</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.62480789578337</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>1.6255426109159</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.625575609638</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>1.62490724992973</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>1.62358946510004</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>1.62171416710618</v>
+      </c>
+      <c r="BT51" t="n">
+        <v>1.61907457715227</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>1.61574459107901</v>
+      </c>
+      <c r="BV51" t="n">
+        <v>1.611794553863</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>1.60727081213815</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>1.60195481824629</v>
+      </c>
+      <c r="BY51" t="n">
+        <v>1.59596394190754</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>1.58937888554115</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>1.58212644405772</v>
+      </c>
+      <c r="CB51" t="n">
+        <v>1.57410398899681</v>
+      </c>
+      <c r="CC51" t="n">
+        <v>1.56527306841816</v>
+      </c>
+      <c r="CD51" t="n">
+        <v>1.55620030223551</v>
+      </c>
+      <c r="CE51" t="n">
+        <v>1.54766139982134</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>1.53912622163739</v>
+      </c>
+      <c r="CG51" t="n">
+        <v>1.53135244789052</v>
+      </c>
+      <c r="CH51" t="n">
+        <v>1.52406584614393</v>
+      </c>
+      <c r="CI51" t="n">
+        <v>1.51727367153489</v>
+      </c>
+      <c r="CJ51" t="n">
+        <v>1.5109854387068</v>
+      </c>
+      <c r="CK51" t="n">
+        <v>1.50519370837615</v>
+      </c>
+      <c r="CL51" t="n">
+        <v>1.49989880607932</v>
+      </c>
+      <c r="CM51" t="n">
+        <v>1.49510825709787</v>
+      </c>
+      <c r="CN51" t="n">
+        <v>1.49081163510941</v>
+      </c>
+      <c r="CO51" t="n">
+        <v>1.4869622436343</v>
+      </c>
+      <c r="CP51" t="n">
+        <v>1.48366419266045</v>
+      </c>
+      <c r="CQ51" t="n">
+        <v>1.48088081821181</v>
+      </c>
+      <c r="CR51" t="n">
+        <v>1.47855850891017</v>
+      </c>
+      <c r="CS51" t="n">
+        <v>1.47672278321716</v>
+      </c>
+      <c r="CT51" t="n">
+        <v>1.47540196448279</v>
+      </c>
+      <c r="CU51" t="n">
+        <v>1.47466235209308</v>
+      </c>
+      <c r="CV51" t="n">
+        <v>1.47435866348343</v>
+      </c>
+      <c r="CW51" t="n">
+        <v>1.47453066120665</v>
+      </c>
+      <c r="CX51" t="n">
+        <v>1.47500418748612</v>
+      </c>
+      <c r="CY51" t="n">
+        <v>1.47498042104947</v>
+      </c>
+      <c r="CZ51" t="n">
+        <v>1.47407962083675</v>
+      </c>
+      <c r="DA51" t="n">
+        <v>1.47215979978659</v>
+      </c>
+      <c r="DB51" t="n">
+        <v>1.46950381347948</v>
+      </c>
+      <c r="DC51" t="n">
+        <v>1.46615259104672</v>
+      </c>
+      <c r="DD51" t="n">
+        <v>1.4616537031837</v>
+      </c>
+      <c r="DE51" t="n">
+        <v>1.45645439730345</v>
+      </c>
+      <c r="DF51" t="n">
+        <v>1.45041086560516</v>
+      </c>
+      <c r="DG51" t="n">
+        <v>1.44350845741707</v>
+      </c>
+      <c r="DH51" t="n">
+        <v>1.43576640196721</v>
+      </c>
+      <c r="DI51" t="n">
+        <v>1.4271006022904</v>
+      </c>
+      <c r="DJ51" t="n">
+        <v>1.41768790961718</v>
+      </c>
+      <c r="DK51" t="n">
+        <v>1.40746001618067</v>
+      </c>
+      <c r="DL51" t="n">
+        <v>1.39620435593135</v>
+      </c>
+      <c r="DM51" t="n">
+        <v>1.38412591841931</v>
+      </c>
+      <c r="DN51" t="n">
+        <v>1.37133841390797</v>
+      </c>
+      <c r="DO51" t="n">
+        <v>1.35771185758477</v>
+      </c>
+      <c r="DP51" t="n">
+        <v>1.34302413762589</v>
+      </c>
+      <c r="DQ51" t="n">
+        <v>1.32753476919314</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0760000012815176</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0700519115213666</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0729732157142632</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.07799030830017201</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0855246351817662</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0914210323760991</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0965403439539668</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.109724404282738</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.131983119232881</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.158561208162856</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.188215553135408</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.22048822607086</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.256855679546971</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.305335851064916</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.367713264123423</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.441622583066221</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.525973154234594</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.607504224487482</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.681772464830496</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.74888216379938</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.810137670313647</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.867873314159664</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.922087187604781</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.973369674612382</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.02091252324783</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1.0655676994844</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.10744118250113</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.1458305286973</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1.18102550420323</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.21431541894221</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.24587015864582</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.27534307259353</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.30263770367831</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1.32829025815749</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.35258233216478</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.37469250232602</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.39463295098304</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.41250254725382</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.42902652826172</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.44325815107117</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.4558022616111</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1.4669262014807</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.476530087805</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.48463617093774</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.49139249800074</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.49677629894434</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.50070449429795</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>1.50313385563801</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1.50433343441145</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>1.50537638957424</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>1.50636454775118</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.50731304382737</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.50824802395526</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.50928031122871</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.51025735620573</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>1.51119463697248</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>1.51211852322248</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.51314014198069</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>1.51418015387601</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.51505304594924</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>1.51593140385995</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.51646315969968</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>1.51649836444002</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>1.51604461291254</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.51516019208753</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>1.51383739311465</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.51202821790266</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>1.50971302026175</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>1.50696446619039</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>1.50383422714709</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>1.50013806502134</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>1.49596397676393</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>1.49137705229467</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>1.48639631808828</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>1.48083069819854</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>1.47479825285536</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>1.46836640021446</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>1.46146369332976</v>
+      </c>
+      <c r="CB52" t="n">
+        <v>1.45399814087392</v>
+      </c>
+      <c r="CC52" t="n">
+        <v>1.44595139945768</v>
+      </c>
+      <c r="CD52" t="n">
+        <v>1.43780131411824</v>
+      </c>
+      <c r="CE52" t="n">
+        <v>1.43016958279616</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>1.4225758381096</v>
+      </c>
+      <c r="CG52" t="n">
+        <v>1.41568780397775</v>
+      </c>
+      <c r="CH52" t="n">
+        <v>1.40926149682795</v>
+      </c>
+      <c r="CI52" t="n">
+        <v>1.40330392556475</v>
+      </c>
+      <c r="CJ52" t="n">
+        <v>1.39782476395007</v>
+      </c>
+      <c r="CK52" t="n">
+        <v>1.39281684461147</v>
+      </c>
+      <c r="CL52" t="n">
+        <v>1.3882799850705</v>
+      </c>
+      <c r="CM52" t="n">
+        <v>1.38422143002172</v>
+      </c>
+      <c r="CN52" t="n">
+        <v>1.38063164781328</v>
+      </c>
+      <c r="CO52" t="n">
+        <v>1.37747159166288</v>
+      </c>
+      <c r="CP52" t="n">
+        <v>1.37482911047727</v>
+      </c>
+      <c r="CQ52" t="n">
+        <v>1.37267485271865</v>
+      </c>
+      <c r="CR52" t="n">
+        <v>1.3709634249654</v>
+      </c>
+      <c r="CS52" t="n">
+        <v>1.36971361812325</v>
+      </c>
+      <c r="CT52" t="n">
+        <v>1.3689469168713</v>
+      </c>
+      <c r="CU52" t="n">
+        <v>1.36872635799747</v>
+      </c>
+      <c r="CV52" t="n">
+        <v>1.36893000987144</v>
+      </c>
+      <c r="CW52" t="n">
+        <v>1.36958487205433</v>
+      </c>
+      <c r="CX52" t="n">
+        <v>1.37052017525283</v>
+      </c>
+      <c r="CY52" t="n">
+        <v>1.37097725299707</v>
+      </c>
+      <c r="CZ52" t="n">
+        <v>1.37061121679629</v>
+      </c>
+      <c r="DA52" t="n">
+        <v>1.3692866221767</v>
+      </c>
+      <c r="DB52" t="n">
+        <v>1.36724631732907</v>
+      </c>
+      <c r="DC52" t="n">
+        <v>1.36452944264485</v>
+      </c>
+      <c r="DD52" t="n">
+        <v>1.36075267102868</v>
+      </c>
+      <c r="DE52" t="n">
+        <v>1.35629404433672</v>
+      </c>
+      <c r="DF52" t="n">
+        <v>1.35103290791017</v>
+      </c>
+      <c r="DG52" t="n">
+        <v>1.34495542939075</v>
+      </c>
+      <c r="DH52" t="n">
+        <v>1.33807937036024</v>
+      </c>
+      <c r="DI52" t="n">
+        <v>1.33032998220979</v>
+      </c>
+      <c r="DJ52" t="n">
+        <v>1.32186502099057</v>
+      </c>
+      <c r="DK52" t="n">
+        <v>1.3126208500361</v>
+      </c>
+      <c r="DL52" t="n">
+        <v>1.30240931881489</v>
+      </c>
+      <c r="DM52" t="n">
+        <v>1.29141492548611</v>
+      </c>
+      <c r="DN52" t="n">
+        <v>1.27974088703491</v>
+      </c>
+      <c r="DO52" t="n">
+        <v>1.26726549488824</v>
+      </c>
+      <c r="DP52" t="n">
+        <v>1.25379059082985</v>
+      </c>
+      <c r="DQ52" t="n">
+        <v>1.23955268364545</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.08600000292062759</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0721366614962785</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.07093036378134369</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.07906178054709941</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.08122096093536869</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0847418742984397</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0941834103528086</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.111300537210558</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.136306680007525</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.169569743967617</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.211435743791233</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.261298942757082</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.318368113064164</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.380752133646962</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.446909429416541</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.514624764285865</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.585332796297235</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.655941646920298</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.724813120648499</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.791964693920118</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.857826797956812</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.920975931181639</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.980334738180295</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.03654923621166</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.08873312642039</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1.13782305212811</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.18393418814534</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.22629393902578</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1.2652204537261</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.3021307683283</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.33720990098817</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1.37007219332514</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.40060830252429</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1.42942037046779</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.45682714236843</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.48190008957547</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.50465472733842</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.52519695846375</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.54436112802993</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.56105411390441</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.57585657310723</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1.58855158209776</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.59888450667113</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.60689095893572</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1.61272685862361</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.61635572127887</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.61767185554931</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>1.61666075667084</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1.61382526851597</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>1.61102143441786</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>1.6085366036634</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.60645157509203</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.60480352402646</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>1.60367038187258</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.60287539727269</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>1.60247118968684</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>1.60248543132448</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.60302352310716</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>1.60400255590452</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.60522803080812</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>1.60682064745266</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.60811486784262</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>1.60885606724247</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>1.60905253456744</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.60877772741142</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>1.60802321323019</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.60672678142142</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>1.60487436445355</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>1.60253541365378</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>1.59978111517466</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>1.59640766620423</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>1.59250146400693</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>1.58813140495608</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>1.58333282864768</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>1.57789399042398</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>1.57193459901475</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>1.5655310075277</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>1.55861203350188</v>
+      </c>
+      <c r="CB53" t="n">
+        <v>1.55108378868377</v>
+      </c>
+      <c r="CC53" t="n">
+        <v>1.54290472171905</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>1.53460283029498</v>
+      </c>
+      <c r="CE53" t="n">
+        <v>1.52688758601396</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>1.5192736306844</v>
+      </c>
+      <c r="CG53" t="n">
+        <v>1.5124551997549</v>
+      </c>
+      <c r="CH53" t="n">
+        <v>1.5061878577273</v>
+      </c>
+      <c r="CI53" t="n">
+        <v>1.5004799821933</v>
+      </c>
+      <c r="CJ53" t="n">
+        <v>1.49533057727388</v>
+      </c>
+      <c r="CK53" t="n">
+        <v>1.490731072927</v>
+      </c>
+      <c r="CL53" t="n">
+        <v>1.48669381942415</v>
+      </c>
+      <c r="CM53" t="n">
+        <v>1.48322748928953</v>
+      </c>
+      <c r="CN53" t="n">
+        <v>1.48030811162792</v>
+      </c>
+      <c r="CO53" t="n">
+        <v>1.47790395405241</v>
+      </c>
+      <c r="CP53" t="n">
+        <v>1.47610264265725</v>
+      </c>
+      <c r="CQ53" t="n">
+        <v>1.47488415292878</v>
+      </c>
+      <c r="CR53" t="n">
+        <v>1.47419631580222</v>
+      </c>
+      <c r="CS53" t="n">
+        <v>1.47404668889862</v>
+      </c>
+      <c r="CT53" t="n">
+        <v>1.47445271341313</v>
+      </c>
+      <c r="CU53" t="n">
+        <v>1.47550908558249</v>
+      </c>
+      <c r="CV53" t="n">
+        <v>1.47708172624723</v>
+      </c>
+      <c r="CW53" t="n">
+        <v>1.4791800941905</v>
+      </c>
+      <c r="CX53" t="n">
+        <v>1.48160073814187</v>
+      </c>
+      <c r="CY53" t="n">
+        <v>1.48346330152075</v>
+      </c>
+      <c r="CZ53" t="n">
+        <v>1.48437187627683</v>
+      </c>
+      <c r="DA53" t="n">
+        <v>1.48413099788358</v>
+      </c>
+      <c r="DB53" t="n">
+        <v>1.48301178118817</v>
+      </c>
+      <c r="DC53" t="n">
+        <v>1.48106139096831</v>
+      </c>
+      <c r="DD53" t="n">
+        <v>1.4778978062965</v>
+      </c>
+      <c r="DE53" t="n">
+        <v>1.47388301464012</v>
+      </c>
+      <c r="DF53" t="n">
+        <v>1.46891646067845</v>
+      </c>
+      <c r="DG53" t="n">
+        <v>1.46298171894498</v>
+      </c>
+      <c r="DH53" t="n">
+        <v>1.4560861218785</v>
+      </c>
+      <c r="DI53" t="n">
+        <v>1.44815478453058</v>
+      </c>
+      <c r="DJ53" t="n">
+        <v>1.43935414974772</v>
+      </c>
+      <c r="DK53" t="n">
+        <v>1.42962933604333</v>
+      </c>
+      <c r="DL53" t="n">
+        <v>1.41876390660341</v>
+      </c>
+      <c r="DM53" t="n">
+        <v>1.40695627130249</v>
+      </c>
+      <c r="DN53" t="n">
+        <v>1.39432229807515</v>
+      </c>
+      <c r="DO53" t="n">
+        <v>1.38073784083748</v>
+      </c>
+      <c r="DP53" t="n">
+        <v>1.36597429655213</v>
+      </c>
+      <c r="DQ53" t="n">
+        <v>1.35029229097272</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44190</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0804000012577077</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0703956347326514</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0721953171810225</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.081072843587504</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0780959485715549</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.07987942681117829</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0910286881555956</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.108261494532652</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.131098068711388</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.16278653984496</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.204547885325732</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.255792146050975</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.31555836984682</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.380202654727579</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.449757583897206</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.523548715507556</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.597660266176939</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.668084500891086</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.732980840560041</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.791324771219354</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.844880381096318</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.896779798159676</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.947286512641595</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.996951235875991</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.04497825927048</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1.09221903670432</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.13883328498696</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.18406133508529</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1.22773354027278</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.26937080024316</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.30863746457436</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1.3451017647117</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.37864663939045</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1.40992469774264</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.43874568839319</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.46489358370941</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.48878983943065</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.50958617763023</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.52850457874184</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.54473423398433</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.55804505481039</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1.56911017480086</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.57793250143392</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.58428967853501</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.58840379792356</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.59023713298958</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.58968533935992</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>1.58675449723369</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.58214446186813</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>1.57849260073113</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>1.57632939016819</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.57573957794572</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.57672289823347</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>1.57939116017728</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.58361802297696</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>1.58938304559368</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>1.5966513492712</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.6056424721699</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>1.61616048748037</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.62823858377719</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>1.64184329780743</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.65374653069004</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1.66381743058678</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>1.67179726886367</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.6779444917283</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>1.68222823449784</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.68452717516333</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>1.68486622015205</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>1.68329273619463</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>1.67990954374392</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>1.67446250663021</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>1.66706291982753</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>1.65783635082804</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>1.64675426670104</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>1.63352661231799</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>1.61839151811129</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>1.60145088022276</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>1.58251651264445</v>
+      </c>
+      <c r="CB54" t="n">
+        <v>1.56157756879185</v>
+      </c>
+      <c r="CC54" t="n">
+        <v>1.53886336041841</v>
+      </c>
+      <c r="CD54" t="n">
+        <v>1.51424127411309</v>
+      </c>
+      <c r="CE54" t="n">
+        <v>1.49165552651127</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>1.47012806738344</v>
+      </c>
+      <c r="CG54" t="n">
+        <v>1.45019356164735</v>
+      </c>
+      <c r="CH54" t="n">
+        <v>1.4326252774915</v>
+      </c>
+      <c r="CI54" t="n">
+        <v>1.41677968685426</v>
+      </c>
+      <c r="CJ54" t="n">
+        <v>1.40268426042998</v>
+      </c>
+      <c r="CK54" t="n">
+        <v>1.39046874083315</v>
+      </c>
+      <c r="CL54" t="n">
+        <v>1.38000302896617</v>
+      </c>
+      <c r="CM54" t="n">
+        <v>1.37131533228329</v>
+      </c>
+      <c r="CN54" t="n">
+        <v>1.36444504677175</v>
+      </c>
+      <c r="CO54" t="n">
+        <v>1.35931736531315</v>
+      </c>
+      <c r="CP54" t="n">
+        <v>1.35604265303721</v>
+      </c>
+      <c r="CQ54" t="n">
+        <v>1.35458450743427</v>
+      </c>
+      <c r="CR54" t="n">
+        <v>1.35491842086396</v>
+      </c>
+      <c r="CS54" t="n">
+        <v>1.35704073090117</v>
+      </c>
+      <c r="CT54" t="n">
+        <v>1.36092215645851</v>
+      </c>
+      <c r="CU54" t="n">
+        <v>1.36669518891784</v>
+      </c>
+      <c r="CV54" t="n">
+        <v>1.37429891337261</v>
+      </c>
+      <c r="CW54" t="n">
+        <v>1.38365078222377</v>
+      </c>
+      <c r="CX54" t="n">
+        <v>1.39423772494878</v>
+      </c>
+      <c r="CY54" t="n">
+        <v>1.40415561461004</v>
+      </c>
+      <c r="CZ54" t="n">
+        <v>1.41259206181158</v>
+      </c>
+      <c r="DA54" t="n">
+        <v>1.4195581059018</v>
+      </c>
+      <c r="DB54" t="n">
+        <v>1.42507612019068</v>
+      </c>
+      <c r="DC54" t="n">
+        <v>1.42915128598807</v>
+      </c>
+      <c r="DD54" t="n">
+        <v>1.43189078317098</v>
+      </c>
+      <c r="DE54" t="n">
+        <v>1.43300260846759</v>
+      </c>
+      <c r="DF54" t="n">
+        <v>1.43265972675129</v>
+      </c>
+      <c r="DG54" t="n">
+        <v>1.43091320786305</v>
+      </c>
+      <c r="DH54" t="n">
+        <v>1.42769880240846</v>
+      </c>
+      <c r="DI54" t="n">
+        <v>1.42298160632508</v>
+      </c>
+      <c r="DJ54" t="n">
+        <v>1.41687770711361</v>
+      </c>
+      <c r="DK54" t="n">
+        <v>1.40937723957454</v>
+      </c>
+      <c r="DL54" t="n">
+        <v>1.40027056317861</v>
+      </c>
+      <c r="DM54" t="n">
+        <v>1.38972186332975</v>
+      </c>
+      <c r="DN54" t="n">
+        <v>1.37785100249594</v>
+      </c>
+      <c r="DO54" t="n">
+        <v>1.36454738065286</v>
+      </c>
+      <c r="DP54" t="n">
+        <v>1.34957734026017</v>
+      </c>
+      <c r="DQ54" t="n">
+        <v>1.3331998439395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0780000016093574</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0720511643656858</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0750159026042469</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0789225114215555</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0707478819560237</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.06918489549037291</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.078426524266817</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.09329916491194</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.112831827378024</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.140386034826825</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.1774507553525</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.224044433249748</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.279357197448056</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.341862915256901</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.412669345615405</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.491180640155983</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.572363286527442</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.648843487888338</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.717874601588583</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.778699438068964</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.832447474863339</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.884010329450291</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.934506484574822</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.983363241821032</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.03084227537247</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1.07702411681999</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.12231209627413</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.16574823194039</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1.20791695115307</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.24786508070676</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.28589136465833</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1.32191900727383</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.35535037960946</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1.38653844947301</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.41591453869527</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.44357616745016</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.46872861780058</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.4906739891825</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.51166468950831</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.53038237760535</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.54645585246175</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.56043912017735</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.57228281562891</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.58179360065757</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1.58900683420724</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.5941230140108</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.59696001140789</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>1.59752297821646</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.59609230304492</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>1.59417932170226</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>1.59200649618719</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.5895451627881</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.58680303264802</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>1.58394496670494</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.58081655796074</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>1.57739489351053</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>1.57370404054236</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.56990081278732</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>1.56581674972272</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.56145308376933</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>1.55677619424581</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.55243774103805</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>1.54836191634614</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>1.54452649080671</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.54092781473632</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>1.53759296037022</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.53452563003432</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>1.53169379376962</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>1.52904751730016</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>1.52678276395594</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>1.5246821061703</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>1.52285652915788</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>1.5212171572486</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>1.51993228103676</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>1.51888498027081</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>1.51805520864887</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>1.51745208825453</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>1.5171358176154</v>
+      </c>
+      <c r="CB55" t="n">
+        <v>1.51710288055588</v>
+      </c>
+      <c r="CC55" t="n">
+        <v>1.51736094563357</v>
+      </c>
+      <c r="CD55" t="n">
+        <v>1.51764522755785</v>
+      </c>
+      <c r="CE55" t="n">
+        <v>1.51788830404716</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>1.51802791970741</v>
+      </c>
+      <c r="CG55" t="n">
+        <v>1.5177907166292</v>
+      </c>
+      <c r="CH55" t="n">
+        <v>1.51737990039524</v>
+      </c>
+      <c r="CI55" t="n">
+        <v>1.51678983236924</v>
+      </c>
+      <c r="CJ55" t="n">
+        <v>1.51601698570211</v>
+      </c>
+      <c r="CK55" t="n">
+        <v>1.515006739035</v>
+      </c>
+      <c r="CL55" t="n">
+        <v>1.51376267445264</v>
+      </c>
+      <c r="CM55" t="n">
+        <v>1.51233464252415</v>
+      </c>
+      <c r="CN55" t="n">
+        <v>1.51071901258902</v>
+      </c>
+      <c r="CO55" t="n">
+        <v>1.50887078258137</v>
+      </c>
+      <c r="CP55" t="n">
+        <v>1.50676987817329</v>
+      </c>
+      <c r="CQ55" t="n">
+        <v>1.5045016165718</v>
+      </c>
+      <c r="CR55" t="n">
+        <v>1.50204079039677</v>
+      </c>
+      <c r="CS55" t="n">
+        <v>1.49932161520836</v>
+      </c>
+      <c r="CT55" t="n">
+        <v>1.49635963367309</v>
+      </c>
+      <c r="CU55" t="n">
+        <v>1.49329857662271</v>
+      </c>
+      <c r="CV55" t="n">
+        <v>1.48999248036555</v>
+      </c>
+      <c r="CW55" t="n">
+        <v>1.48642390390174</v>
+      </c>
+      <c r="CX55" t="n">
+        <v>1.48257340521205</v>
+      </c>
+      <c r="CY55" t="n">
+        <v>1.47834791648951</v>
+      </c>
+      <c r="CZ55" t="n">
+        <v>1.47351450437959</v>
+      </c>
+      <c r="DA55" t="n">
+        <v>1.46805276385969</v>
+      </c>
+      <c r="DB55" t="n">
+        <v>1.46189655246689</v>
+      </c>
+      <c r="DC55" t="n">
+        <v>1.45558909123876</v>
+      </c>
+      <c r="DD55" t="n">
+        <v>1.44848295317573</v>
+      </c>
+      <c r="DE55" t="n">
+        <v>1.44061417244208</v>
+      </c>
+      <c r="DF55" t="n">
+        <v>1.43242576025905</v>
+      </c>
+      <c r="DG55" t="n">
+        <v>1.4236647992514</v>
+      </c>
+      <c r="DH55" t="n">
+        <v>1.41432110021193</v>
+      </c>
+      <c r="DI55" t="n">
+        <v>1.40444226119668</v>
+      </c>
+      <c r="DJ55" t="n">
+        <v>1.39395335645691</v>
+      </c>
+      <c r="DK55" t="n">
+        <v>1.38301310956994</v>
+      </c>
+      <c r="DL55" t="n">
+        <v>1.37133286834424</v>
+      </c>
+      <c r="DM55" t="n">
+        <v>1.35921949375528</v>
+      </c>
+      <c r="DN55" t="n">
+        <v>1.34649985215631</v>
+      </c>
+      <c r="DO55" t="n">
+        <v>1.33337190477067</v>
+      </c>
+      <c r="DP55" t="n">
+        <v>1.31953770729767</v>
+      </c>
+      <c r="DQ55" t="n">
+        <v>1.30503605950159</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44204</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.07700004801156619</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.070621525271664</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0706580142421618</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.073701203004713</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0800862555744075</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0920998043133906</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.11142566557171</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.144538009880617</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.191306028510763</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.246251285597995</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.308673677519232</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.378396897587587</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.454156442393963</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.533461127021121</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.617879622761769</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.706098429417611</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.79265826640229</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.878126764651504</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.960246401824108</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.0389354464509</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.11151756339128</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.1803628640682</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.24429791230931</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.30320173244274</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.35557490185567</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1.40310278246133</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.44585951338863</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.48345299194034</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1.51608709936909</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.54654415975175</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.57588327604567</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1.60401724787519</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.63045855156927</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1.65556223649246</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.67962916168339</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.70277494419706</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.72424425681416</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.74352452019225</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.7627365868777</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.78037979205078</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.79583833154586</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1.80919116744939</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.81997531941757</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.82805986905297</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.8332676353781</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.83596523775641</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.83603587961177</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>1.83334668330926</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>1.82842183803427</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>1.82369288215741</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>1.81954252693633</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.81596306140757</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.8129620056893</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>1.81073870157564</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.80912189389508</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>1.80809042552584</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>1.80761017041391</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.80789286239894</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>1.80880998371227</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.81043852114386</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>1.81229925313518</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1.81394591424919</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>1.81511480890628</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>1.81570681140774</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.8157199222117</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>1.81525592317594</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.81430251249745</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>1.81276054947575</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>1.81064025691029</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>1.80812331521445</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>1.80504723953429</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>1.80137141033927</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>1.79711638566733</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>1.79249412965129</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>1.78728933879963</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>1.78147401909706</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>1.77511226353097</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>1.76829960346368</v>
+      </c>
+      <c r="CB56" t="n">
+        <v>1.76096019499471</v>
+      </c>
+      <c r="CC56" t="n">
+        <v>1.75299465543638</v>
+      </c>
+      <c r="CD56" t="n">
+        <v>1.74446269661109</v>
+      </c>
+      <c r="CE56" t="n">
+        <v>1.73669672674751</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>1.7290786848826</v>
+      </c>
+      <c r="CG56" t="n">
+        <v>1.72156242040703</v>
+      </c>
+      <c r="CH56" t="n">
+        <v>1.71485709508965</v>
+      </c>
+      <c r="CI56" t="n">
+        <v>1.70849308407258</v>
+      </c>
+      <c r="CJ56" t="n">
+        <v>1.70255302849975</v>
+      </c>
+      <c r="CK56" t="n">
+        <v>1.69696235751455</v>
+      </c>
+      <c r="CL56" t="n">
+        <v>1.69189046233468</v>
+      </c>
+      <c r="CM56" t="n">
+        <v>1.6871860010758</v>
+      </c>
+      <c r="CN56" t="n">
+        <v>1.68291362492547</v>
+      </c>
+      <c r="CO56" t="n">
+        <v>1.6790006912431</v>
+      </c>
+      <c r="CP56" t="n">
+        <v>1.67552593168376</v>
+      </c>
+      <c r="CQ56" t="n">
+        <v>1.6724853427137</v>
+      </c>
+      <c r="CR56" t="n">
+        <v>1.66988532920426</v>
+      </c>
+      <c r="CS56" t="n">
+        <v>1.66765454299468</v>
+      </c>
+      <c r="CT56" t="n">
+        <v>1.66578735458618</v>
+      </c>
+      <c r="CU56" t="n">
+        <v>1.66445804764083</v>
+      </c>
+      <c r="CV56" t="n">
+        <v>1.66353057558825</v>
+      </c>
+      <c r="CW56" t="n">
+        <v>1.66298182320376</v>
+      </c>
+      <c r="CX56" t="n">
+        <v>1.66261866960449</v>
+      </c>
+      <c r="CY56" t="n">
+        <v>1.66185730124615</v>
+      </c>
+      <c r="CZ56" t="n">
+        <v>1.66033274001938</v>
+      </c>
+      <c r="DA56" t="n">
+        <v>1.65804259860949</v>
+      </c>
+      <c r="DB56" t="n">
+        <v>1.65480098574325</v>
+      </c>
+      <c r="DC56" t="n">
+        <v>1.65110447916216</v>
+      </c>
+      <c r="DD56" t="n">
+        <v>1.6465831608395</v>
+      </c>
+      <c r="DE56" t="n">
+        <v>1.64098848545641</v>
+      </c>
+      <c r="DF56" t="n">
+        <v>1.63496095187884</v>
+      </c>
+      <c r="DG56" t="n">
+        <v>1.62812584377779</v>
+      </c>
+      <c r="DH56" t="n">
+        <v>1.6205327515634</v>
+      </c>
+      <c r="DI56" t="n">
+        <v>1.61209744628938</v>
+      </c>
+      <c r="DJ56" t="n">
+        <v>1.60303393420405</v>
+      </c>
+      <c r="DK56" t="n">
+        <v>1.59328617437728</v>
+      </c>
+      <c r="DL56" t="n">
+        <v>1.58267551878897</v>
+      </c>
+      <c r="DM56" t="n">
+        <v>1.57120794583739</v>
+      </c>
+      <c r="DN56" t="n">
+        <v>1.55904516799872</v>
+      </c>
+      <c r="DO56" t="n">
+        <v>1.54630505669713</v>
+      </c>
+      <c r="DP56" t="n">
+        <v>1.53266904267169</v>
+      </c>
+      <c r="DQ56" t="n">
+        <v>1.51816192689199</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0782999992369859</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0717222307921515</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0717533095208104</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.06628030463456221</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0739217831524641</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0820805364217351</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0886090857834821</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.106930754431718</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.139706448750321</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.184754848630646</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.242285897151487</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.3131271420743</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.394199345333057</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.477112039896132</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.561620323551786</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.64679199136987</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.732523609993052</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.81598767634076</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.897879599817334</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.9768244647233441</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.05277161704853</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.12328386051771</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.18887856157281</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.24903727479794</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.3027991381092</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1.35068798528941</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.39339855250931</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.43053119172763</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1.46235009922335</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.49207164148944</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.5209209584897</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1.54918120583582</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.57603075453722</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1.60065111832948</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.62557016624423</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.64934313103681</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.67152829438502</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.6926529156971</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.71294720363018</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.73202948796702</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.74968906513797</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.76482872039332</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.77722353725161</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.78660486284606</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.79307418624359</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.79664386380162</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.79735357745861</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>1.79507091032538</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.79029731593809</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>1.78551718854723</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>1.78117439346093</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.77726086890807</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.77379285570201</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>1.77096022668063</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.76858664936195</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>1.76672299141928</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.76515721445138</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.76426083369389</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>1.76394176220775</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.76391096233335</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>1.76427441760371</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.76439810892279</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>1.76411573343412</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>1.7633414727423</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.76203225203553</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>1.76041182271002</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.75832072583929</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>1.75571706991209</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>1.7526052285322</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>1.74919082920379</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>1.74528580917177</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>1.74085891228114</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>1.73594530997194</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>1.73073678312493</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>1.72501771363474</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>1.71876782019535</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>1.71205594941309</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>1.70497038655805</v>
+      </c>
+      <c r="CB57" t="n">
+        <v>1.69742602549165</v>
+      </c>
+      <c r="CC57" t="n">
+        <v>1.6891740445056</v>
+      </c>
+      <c r="CD57" t="n">
+        <v>1.68078684712132</v>
+      </c>
+      <c r="CE57" t="n">
+        <v>1.6728737282074</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>1.66535594966892</v>
+      </c>
+      <c r="CG57" t="n">
+        <v>1.65832281427988</v>
+      </c>
+      <c r="CH57" t="n">
+        <v>1.65169437597692</v>
+      </c>
+      <c r="CI57" t="n">
+        <v>1.64569432361372</v>
+      </c>
+      <c r="CJ57" t="n">
+        <v>1.64011085499194</v>
+      </c>
+      <c r="CK57" t="n">
+        <v>1.63500260985557</v>
+      </c>
+      <c r="CL57" t="n">
+        <v>1.6303009226549</v>
+      </c>
+      <c r="CM57" t="n">
+        <v>1.62621395802408</v>
+      </c>
+      <c r="CN57" t="n">
+        <v>1.62256483562494</v>
+      </c>
+      <c r="CO57" t="n">
+        <v>1.61934886784087</v>
+      </c>
+      <c r="CP57" t="n">
+        <v>1.61660143098634</v>
+      </c>
+      <c r="CQ57" t="n">
+        <v>1.61438802298669</v>
+      </c>
+      <c r="CR57" t="n">
+        <v>1.61268401397372</v>
+      </c>
+      <c r="CS57" t="n">
+        <v>1.61142428573495</v>
+      </c>
+      <c r="CT57" t="n">
+        <v>1.61058913594561</v>
+      </c>
+      <c r="CU57" t="n">
+        <v>1.6103445716719</v>
+      </c>
+      <c r="CV57" t="n">
+        <v>1.61058060743529</v>
+      </c>
+      <c r="CW57" t="n">
+        <v>1.6113548338418</v>
+      </c>
+      <c r="CX57" t="n">
+        <v>1.61222688464254</v>
+      </c>
+      <c r="CY57" t="n">
+        <v>1.61254691302093</v>
+      </c>
+      <c r="CZ57" t="n">
+        <v>1.61208717965107</v>
+      </c>
+      <c r="DA57" t="n">
+        <v>1.61051653704065</v>
+      </c>
+      <c r="DB57" t="n">
+        <v>1.60807410651724</v>
+      </c>
+      <c r="DC57" t="n">
+        <v>1.60486284748357</v>
+      </c>
+      <c r="DD57" t="n">
+        <v>1.60071600806107</v>
+      </c>
+      <c r="DE57" t="n">
+        <v>1.59566019418491</v>
+      </c>
+      <c r="DF57" t="n">
+        <v>1.58964055641188</v>
+      </c>
+      <c r="DG57" t="n">
+        <v>1.58287143064744</v>
+      </c>
+      <c r="DH57" t="n">
+        <v>1.57512632333447</v>
+      </c>
+      <c r="DI57" t="n">
+        <v>1.56639320713939</v>
+      </c>
+      <c r="DJ57" t="n">
+        <v>1.55679027069224</v>
+      </c>
+      <c r="DK57" t="n">
+        <v>1.54645177341889</v>
+      </c>
+      <c r="DL57" t="n">
+        <v>1.53509876137245</v>
+      </c>
+      <c r="DM57" t="n">
+        <v>1.52273989217841</v>
+      </c>
+      <c r="DN57" t="n">
+        <v>1.5095549283707</v>
+      </c>
+      <c r="DO57" t="n">
+        <v>1.49564853828139</v>
+      </c>
+      <c r="DP57" t="n">
+        <v>1.4806883097867</v>
+      </c>
+      <c r="DQ57" t="n">
+        <v>1.46470504540077</v>
       </c>
     </row>
   </sheetData>

--- a/data/OIS_clean.xlsx
+++ b/data/OIS_clean.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ57"/>
+  <dimension ref="A1:DQ65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21240,6 +21240,2926 @@
       </c>
       <c r="DQ57" t="n">
         <v>1.4386106844305</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44218</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.08111</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.076541388</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.072784083</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.070294712</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.068723116</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.068253708</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.06892421999999999</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.070901757</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.074855063</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.08120260999999999</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.09076814599999999</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.10416527</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.121653102</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.143010091</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.167583009</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.195466914</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.224246939</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.254355164</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.285657277</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.318096408</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.351627025</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.38613891</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.421242704</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.456540158</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.492083727</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.526440807</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.560528691</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.594121319</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.626661813</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.657696846</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0.68762622</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0.716832999</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0.745046502</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.771739742</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.797865517</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.823438561</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0.848735994</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0.871689787</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0.894714514</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.9177671120000001</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0.9394012470000001</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.960380407</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.98069618</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.000334856</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1.01928397</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.03753216</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.055069051</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>1.072065901</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.088317034</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>1.103494177</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>1.118153989</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.132320592</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.145873127</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>1.158575906</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.17089784</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>1.182855964</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>1.194344445</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.205157691</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>1.215690245</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.225954557</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>1.236068545</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.24552126</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1.254653369</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>1.263474466</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.271993546</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>1.280219055</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.288158926</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>1.295820623</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>1.303290904</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>1.310337187</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>1.317204914</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>1.323891557</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>1.330325974</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>1.336381668</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>1.342269425</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>1.347986231</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>1.353470693</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>1.358671254</v>
+      </c>
+      <c r="CB58" t="n">
+        <v>1.363652779</v>
+      </c>
+      <c r="CC58" t="n">
+        <v>1.368470271</v>
+      </c>
+      <c r="CD58" t="n">
+        <v>1.37316917</v>
+      </c>
+      <c r="CE58" t="n">
+        <v>1.37736818</v>
+      </c>
+      <c r="CF58" t="n">
+        <v>1.381517285</v>
+      </c>
+      <c r="CG58" t="n">
+        <v>1.385609309</v>
+      </c>
+      <c r="CH58" t="n">
+        <v>1.389394468</v>
+      </c>
+      <c r="CI58" t="n">
+        <v>1.393016911</v>
+      </c>
+      <c r="CJ58" t="n">
+        <v>1.39648672</v>
+      </c>
+      <c r="CK58" t="n">
+        <v>1.399813516</v>
+      </c>
+      <c r="CL58" t="n">
+        <v>1.403006485</v>
+      </c>
+      <c r="CM58" t="n">
+        <v>1.4060744</v>
+      </c>
+      <c r="CN58" t="n">
+        <v>1.409025645</v>
+      </c>
+      <c r="CO58" t="n">
+        <v>1.411868239</v>
+      </c>
+      <c r="CP58" t="n">
+        <v>1.414639446</v>
+      </c>
+      <c r="CQ58" t="n">
+        <v>1.417286428</v>
+      </c>
+      <c r="CR58" t="n">
+        <v>1.419846876</v>
+      </c>
+      <c r="CS58" t="n">
+        <v>1.422354362</v>
+      </c>
+      <c r="CT58" t="n">
+        <v>1.424786945</v>
+      </c>
+      <c r="CU58" t="n">
+        <v>1.427100308</v>
+      </c>
+      <c r="CV58" t="n">
+        <v>1.429378567</v>
+      </c>
+      <c r="CW58" t="n">
+        <v>1.431625492</v>
+      </c>
+      <c r="CX58" t="n">
+        <v>1.433821367</v>
+      </c>
+      <c r="CY58" t="n">
+        <v>1.435923645</v>
+      </c>
+      <c r="CZ58" t="n">
+        <v>1.437998795</v>
+      </c>
+      <c r="DA58" t="n">
+        <v>1.440038557</v>
+      </c>
+      <c r="DB58" t="n">
+        <v>1.442055556</v>
+      </c>
+      <c r="DC58" t="n">
+        <v>1.443876525</v>
+      </c>
+      <c r="DD58" t="n">
+        <v>1.445685467</v>
+      </c>
+      <c r="DE58" t="n">
+        <v>1.447469105</v>
+      </c>
+      <c r="DF58" t="n">
+        <v>1.449108096</v>
+      </c>
+      <c r="DG58" t="n">
+        <v>1.450655583</v>
+      </c>
+      <c r="DH58" t="n">
+        <v>1.452106607</v>
+      </c>
+      <c r="DI58" t="n">
+        <v>1.453456386</v>
+      </c>
+      <c r="DJ58" t="n">
+        <v>1.454713373</v>
+      </c>
+      <c r="DK58" t="n">
+        <v>1.455833927</v>
+      </c>
+      <c r="DL58" t="n">
+        <v>1.456852947</v>
+      </c>
+      <c r="DM58" t="n">
+        <v>1.457762443</v>
+      </c>
+      <c r="DN58" t="n">
+        <v>1.458546439</v>
+      </c>
+      <c r="DO58" t="n">
+        <v>1.459188119</v>
+      </c>
+      <c r="DP58" t="n">
+        <v>1.459707248</v>
+      </c>
+      <c r="DQ58" t="n">
+        <v>1.460095859</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.07097000000000001</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.06386997</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.066905566</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.069433358</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.070947049</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.071212027</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.07105813699999999</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.071443115</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.074241032</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.08038287199999999</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.090327934</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.103779858</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.120638252</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.140318305</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.16343152</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.18992059</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.218146551</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.247656751</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.281082901</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.314842459</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.349602598</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.385037304</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.420779422</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.456499862</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.492310972</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.526821926</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.560997728</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.594645583</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.6272382949999999</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.658006828</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.688353215</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0.717643382</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0.745931802</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0.772389553</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0.7988414029999999</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.824417645</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0.849680105</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0.87230522</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0.895465437</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.918341043</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0.939749117</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.959776851</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.980441312</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.9997296020000001</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.018313304</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.036192829</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.053368552</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>1.070017925</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.085948619</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>1.100682867</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>1.11525066</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.129186906</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.142531322</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>1.154911962</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.16719656</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>1.178990469</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>1.190322967</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.200872467</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>1.211374834</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.221491165</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>1.231451637</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.240450281</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>1.249726747</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>1.258386705</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.266740651</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>1.274797164</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.282564304</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>1.290049651</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>1.29733808</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>1.304203099</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>1.310884264</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>1.317379033</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>1.323618384</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>1.329416413</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>1.335169079</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>1.340681841</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>1.345959382</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>1.350898853</v>
+      </c>
+      <c r="CB59" t="n">
+        <v>1.355723919</v>
+      </c>
+      <c r="CC59" t="n">
+        <v>1.360326322</v>
+      </c>
+      <c r="CD59" t="n">
+        <v>1.364802748</v>
+      </c>
+      <c r="CE59" t="n">
+        <v>1.368746878</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>1.372720537</v>
+      </c>
+      <c r="CG59" t="n">
+        <v>1.376584183</v>
+      </c>
+      <c r="CH59" t="n">
+        <v>1.380147428</v>
+      </c>
+      <c r="CI59" t="n">
+        <v>1.383438062</v>
+      </c>
+      <c r="CJ59" t="n">
+        <v>1.386795491</v>
+      </c>
+      <c r="CK59" t="n">
+        <v>1.389900979</v>
+      </c>
+      <c r="CL59" t="n">
+        <v>1.392873773</v>
+      </c>
+      <c r="CM59" t="n">
+        <v>1.395723078</v>
+      </c>
+      <c r="CN59" t="n">
+        <v>1.39845769</v>
+      </c>
+      <c r="CO59" t="n">
+        <v>1.40108602</v>
+      </c>
+      <c r="CP59" t="n">
+        <v>1.403643402</v>
+      </c>
+      <c r="CQ59" t="n">
+        <v>1.406055679</v>
+      </c>
+      <c r="CR59" t="n">
+        <v>1.408437543</v>
+      </c>
+      <c r="CS59" t="n">
+        <v>1.410741711</v>
+      </c>
+      <c r="CT59" t="n">
+        <v>1.412975176</v>
+      </c>
+      <c r="CU59" t="n">
+        <v>1.415074839</v>
+      </c>
+      <c r="CV59" t="n">
+        <v>1.417188508</v>
+      </c>
+      <c r="CW59" t="n">
+        <v>1.419250571</v>
+      </c>
+      <c r="CX59" t="n">
+        <v>1.421266953</v>
+      </c>
+      <c r="CY59" t="n">
+        <v>1.423177849</v>
+      </c>
+      <c r="CZ59" t="n">
+        <v>1.425107888</v>
+      </c>
+      <c r="DA59" t="n">
+        <v>1.426985483</v>
+      </c>
+      <c r="DB59" t="n">
+        <v>1.428843232</v>
+      </c>
+      <c r="DC59" t="n">
+        <v>1.430502475</v>
+      </c>
+      <c r="DD59" t="n">
+        <v>1.432188597</v>
+      </c>
+      <c r="DE59" t="n">
+        <v>1.433832985</v>
+      </c>
+      <c r="DF59" t="n">
+        <v>1.435344068</v>
+      </c>
+      <c r="DG59" t="n">
+        <v>1.436770588</v>
+      </c>
+      <c r="DH59" t="n">
+        <v>1.438107734</v>
+      </c>
+      <c r="DI59" t="n">
+        <v>1.439350868</v>
+      </c>
+      <c r="DJ59" t="n">
+        <v>1.440507533</v>
+      </c>
+      <c r="DK59" t="n">
+        <v>1.441537368</v>
+      </c>
+      <c r="DL59" t="n">
+        <v>1.442472254</v>
+      </c>
+      <c r="DM59" t="n">
+        <v>1.44330458</v>
+      </c>
+      <c r="DN59" t="n">
+        <v>1.44401946</v>
+      </c>
+      <c r="DO59" t="n">
+        <v>1.444595619</v>
+      </c>
+      <c r="DP59" t="n">
+        <v>1.445068259</v>
+      </c>
+      <c r="DQ59" t="n">
+        <v>1.445412343</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44232</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.08111</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.064883698</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.069642141</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.072625409</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.073986511</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.07513914100000001</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.07703178099999999</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.080384418</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.08660484</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.096220318</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.109988054</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.127601997</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.149031553</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.173581032</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.201880948</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.234032076</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.26690435</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.301038492</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.339240585</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.377546417</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.416843266</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.456842832</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.497145975</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.537381107</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.577673285</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.616457473</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0.654817894</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.692535424</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.7290170540000001</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.763404171</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0.797271065</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0.829916943</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0.861410076</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0.890835754</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0.920229241</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.948628064</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0.976660259</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.001752898</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.027428567</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.053045808</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.076501806</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1.09869027</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.121577299</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.14292885</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1.163485022</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.183242759</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.202199271</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>1.220547009</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1.238070786</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>1.254245095</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>1.270202892</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.285436251</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.299991742</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.313468055</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.326812496</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>1.339597662</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>1.351857882</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.363248813</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>1.3745673</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.385449221</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>1.396143694</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.405788613</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1.415714942</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>1.424967049</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.433879441</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>1.442463172</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.45072863</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>1.458685581</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>1.466425743</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>1.473710219</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>1.480794739</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>1.487677831</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>1.494287612</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>1.500428465</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>1.506520926</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>1.512360068</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>1.517951928</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>1.523188441</v>
+      </c>
+      <c r="CB60" t="n">
+        <v>1.528307673</v>
+      </c>
+      <c r="CC60" t="n">
+        <v>1.533195801</v>
+      </c>
+      <c r="CD60" t="n">
+        <v>1.537956588</v>
+      </c>
+      <c r="CE60" t="n">
+        <v>1.542158018</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>1.546398437</v>
+      </c>
+      <c r="CG60" t="n">
+        <v>1.550572698</v>
+      </c>
+      <c r="CH60" t="n">
+        <v>1.554348283</v>
+      </c>
+      <c r="CI60" t="n">
+        <v>1.557882739</v>
+      </c>
+      <c r="CJ60" t="n">
+        <v>1.561498029</v>
+      </c>
+      <c r="CK60" t="n">
+        <v>1.564851247</v>
+      </c>
+      <c r="CL60" t="n">
+        <v>1.568070507</v>
+      </c>
+      <c r="CM60" t="n">
+        <v>1.571165588</v>
+      </c>
+      <c r="CN60" t="n">
+        <v>1.574145837</v>
+      </c>
+      <c r="CO60" t="n">
+        <v>1.577020189</v>
+      </c>
+      <c r="CP60" t="n">
+        <v>1.579827201</v>
+      </c>
+      <c r="CQ60" t="n">
+        <v>1.582485036</v>
+      </c>
+      <c r="CR60" t="n">
+        <v>1.585119768</v>
+      </c>
+      <c r="CS60" t="n">
+        <v>1.587679129</v>
+      </c>
+      <c r="CT60" t="n">
+        <v>1.590170549</v>
+      </c>
+      <c r="CU60" t="n">
+        <v>1.592522777</v>
+      </c>
+      <c r="CV60" t="n">
+        <v>1.594901039</v>
+      </c>
+      <c r="CW60" t="n">
+        <v>1.597231649</v>
+      </c>
+      <c r="CX60" t="n">
+        <v>1.599520902</v>
+      </c>
+      <c r="CY60" t="n">
+        <v>1.601699928</v>
+      </c>
+      <c r="CZ60" t="n">
+        <v>1.603910055</v>
+      </c>
+      <c r="DA60" t="n">
+        <v>1.606068939</v>
+      </c>
+      <c r="DB60" t="n">
+        <v>1.60821355</v>
+      </c>
+      <c r="DC60" t="n">
+        <v>1.610136283</v>
+      </c>
+      <c r="DD60" t="n">
+        <v>1.612097411</v>
+      </c>
+      <c r="DE60" t="n">
+        <v>1.614037313</v>
+      </c>
+      <c r="DF60" t="n">
+        <v>1.615788544</v>
+      </c>
+      <c r="DG60" t="n">
+        <v>1.617467195</v>
+      </c>
+      <c r="DH60" t="n">
+        <v>1.619047188</v>
+      </c>
+      <c r="DI60" t="n">
+        <v>1.620522612</v>
+      </c>
+      <c r="DJ60" t="n">
+        <v>1.621902134</v>
+      </c>
+      <c r="DK60" t="n">
+        <v>1.623137146</v>
+      </c>
+      <c r="DL60" t="n">
+        <v>1.624265446</v>
+      </c>
+      <c r="DM60" t="n">
+        <v>1.625277834</v>
+      </c>
+      <c r="DN60" t="n">
+        <v>1.626156116</v>
+      </c>
+      <c r="DO60" t="n">
+        <v>1.626873494</v>
+      </c>
+      <c r="DP60" t="n">
+        <v>1.627473688</v>
+      </c>
+      <c r="DQ60" t="n">
+        <v>1.627925615</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.08111</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.07096608</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.074846595</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.076967497</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.07803903500000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.080439917</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.084312057</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.089567722</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.097452777</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.10847796</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.123766852</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.14320968</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.167786551</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.194240055</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.226304626</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.260066166</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.296364123</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.333559924</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.372480804</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.4124019</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.453517051</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.494232016</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.535545977</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.577128152</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.618240211</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.657339368</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.696864799</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.735313416</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.772537581</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.80767176</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.842318406</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.875755714</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.909082307</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.938250539</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.968448173</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.998273481</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.02649718</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.052338716</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.079363754</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.1046675</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.129415671</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.152829594</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.175686515</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.197698776</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1.21907289</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.239107233</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.258674504</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>1.277303085</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>1.294977853</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>1.311167606</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>1.327023164</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.342057999</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.356340969</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>1.369502623</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.38248762</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>1.394896095</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>1.407157983</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.417818142</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>1.42880108</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.439615003</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>1.449838646</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.459525771</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>1.469015544</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>1.478204331</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.487193588</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>1.495700028</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.504016683</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>1.512138639</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>1.519977243</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>1.527294423</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>1.534587206</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>1.541608031</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>1.548360315</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>1.554639909</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>1.560873129</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>1.566846889</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>1.572563928</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>1.577910772</v>
+      </c>
+      <c r="CB61" t="n">
+        <v>1.583127475</v>
+      </c>
+      <c r="CC61" t="n">
+        <v>1.588200041</v>
+      </c>
+      <c r="CD61" t="n">
+        <v>1.592914876</v>
+      </c>
+      <c r="CE61" t="n">
+        <v>1.597150029</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>1.601495769</v>
+      </c>
+      <c r="CG61" t="n">
+        <v>1.605490805</v>
+      </c>
+      <c r="CH61" t="n">
+        <v>1.609332989</v>
+      </c>
+      <c r="CI61" t="n">
+        <v>1.612914173</v>
+      </c>
+      <c r="CJ61" t="n">
+        <v>1.616370064</v>
+      </c>
+      <c r="CK61" t="n">
+        <v>1.619672746</v>
+      </c>
+      <c r="CL61" t="n">
+        <v>1.62286848</v>
+      </c>
+      <c r="CM61" t="n">
+        <v>1.625866955</v>
+      </c>
+      <c r="CN61" t="n">
+        <v>1.628781373</v>
+      </c>
+      <c r="CO61" t="n">
+        <v>1.631618714</v>
+      </c>
+      <c r="CP61" t="n">
+        <v>1.634356889</v>
+      </c>
+      <c r="CQ61" t="n">
+        <v>1.636949298</v>
+      </c>
+      <c r="CR61" t="n">
+        <v>1.639520671</v>
+      </c>
+      <c r="CS61" t="n">
+        <v>1.642021741</v>
+      </c>
+      <c r="CT61" t="n">
+        <v>1.644461398</v>
+      </c>
+      <c r="CU61" t="n">
+        <v>1.646771081</v>
+      </c>
+      <c r="CV61" t="n">
+        <v>1.649114452</v>
+      </c>
+      <c r="CW61" t="n">
+        <v>1.651420684</v>
+      </c>
+      <c r="CX61" t="n">
+        <v>1.653771131</v>
+      </c>
+      <c r="CY61" t="n">
+        <v>1.655876191</v>
+      </c>
+      <c r="CZ61" t="n">
+        <v>1.658098091</v>
+      </c>
+      <c r="DA61" t="n">
+        <v>1.660326702</v>
+      </c>
+      <c r="DB61" t="n">
+        <v>1.662458019</v>
+      </c>
+      <c r="DC61" t="n">
+        <v>1.664420229</v>
+      </c>
+      <c r="DD61" t="n">
+        <v>1.666473828</v>
+      </c>
+      <c r="DE61" t="n">
+        <v>1.668388231</v>
+      </c>
+      <c r="DF61" t="n">
+        <v>1.670242295</v>
+      </c>
+      <c r="DG61" t="n">
+        <v>1.671969759</v>
+      </c>
+      <c r="DH61" t="n">
+        <v>1.673622737</v>
+      </c>
+      <c r="DI61" t="n">
+        <v>1.675191322</v>
+      </c>
+      <c r="DJ61" t="n">
+        <v>1.676650144</v>
+      </c>
+      <c r="DK61" t="n">
+        <v>1.677950888</v>
+      </c>
+      <c r="DL61" t="n">
+        <v>1.679175203</v>
+      </c>
+      <c r="DM61" t="n">
+        <v>1.680271325</v>
+      </c>
+      <c r="DN61" t="n">
+        <v>1.681233467</v>
+      </c>
+      <c r="DO61" t="n">
+        <v>1.682031479</v>
+      </c>
+      <c r="DP61" t="n">
+        <v>1.682713906</v>
+      </c>
+      <c r="DQ61" t="n">
+        <v>1.683246327</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.07097000000000001</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.07279068700000001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.080334687</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.08488624</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.087252685</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.089053719</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.09228600300000001</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.098237348</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.108438985</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.123240059</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.143723926</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.16971518</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.200244008</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.235191859</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.274886259</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.31866409</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.363476295</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.408541453</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.457760105</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.505765668</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.553561015</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.601242238</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.647054843</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.692397904</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.73711812</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.779676526</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0.821427392</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.862254987</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.901629326</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.938710523</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0.975214319</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1.010761385</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.04430066</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1.075974696</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.107599944</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.138141016</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.168273686</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.195234057</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.222808015</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.250021159</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.275470534</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1.299258022</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.323741826</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.346493029</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.3682719</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.389045511</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.40878379</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>1.427658442</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1.445420695</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>1.461540592</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>1.477181618</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.491877483</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.505715935</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1.518363565</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.530746112</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>1.542619155</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>1.553673993</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.564003627</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>1.574234462</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.584062538</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>1.593738951</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.602500848</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>1.611556788</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>1.620031209</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.628223486</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>1.636224289</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.643782126</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>1.651157987</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>1.658347457</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>1.665124471</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>1.671723027</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>1.678138406</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>1.68430023</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>1.690022994</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>1.695695585</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>1.701124041</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>1.706311207</v>
+      </c>
+      <c r="CA62" t="n">
+        <v>1.711154718</v>
+      </c>
+      <c r="CB62" t="n">
+        <v>1.715872351</v>
+      </c>
+      <c r="CC62" t="n">
+        <v>1.720356318</v>
+      </c>
+      <c r="CD62" t="n">
+        <v>1.724698818</v>
+      </c>
+      <c r="CE62" t="n">
+        <v>1.728506407</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>1.732323245</v>
+      </c>
+      <c r="CG62" t="n">
+        <v>1.7360147</v>
+      </c>
+      <c r="CH62" t="n">
+        <v>1.739400888</v>
+      </c>
+      <c r="CI62" t="n">
+        <v>1.742511623</v>
+      </c>
+      <c r="CJ62" t="n">
+        <v>1.745668511</v>
+      </c>
+      <c r="CK62" t="n">
+        <v>1.748572604</v>
+      </c>
+      <c r="CL62" t="n">
+        <v>1.751337802</v>
+      </c>
+      <c r="CM62" t="n">
+        <v>1.754002487</v>
+      </c>
+      <c r="CN62" t="n">
+        <v>1.756491425</v>
+      </c>
+      <c r="CO62" t="n">
+        <v>1.758898713</v>
+      </c>
+      <c r="CP62" t="n">
+        <v>1.761229691</v>
+      </c>
+      <c r="CQ62" t="n">
+        <v>1.763418363</v>
+      </c>
+      <c r="CR62" t="n">
+        <v>1.765570207</v>
+      </c>
+      <c r="CS62" t="n">
+        <v>1.767643586</v>
+      </c>
+      <c r="CT62" t="n">
+        <v>1.769646166</v>
+      </c>
+      <c r="CU62" t="n">
+        <v>1.771522988</v>
+      </c>
+      <c r="CV62" t="n">
+        <v>1.773407439</v>
+      </c>
+      <c r="CW62" t="n">
+        <v>1.775261717</v>
+      </c>
+      <c r="CX62" t="n">
+        <v>1.77703324</v>
+      </c>
+      <c r="CY62" t="n">
+        <v>1.778728959</v>
+      </c>
+      <c r="CZ62" t="n">
+        <v>1.780439438</v>
+      </c>
+      <c r="DA62" t="n">
+        <v>1.782100424</v>
+      </c>
+      <c r="DB62" t="n">
+        <v>1.783739941</v>
+      </c>
+      <c r="DC62" t="n">
+        <v>1.785200012</v>
+      </c>
+      <c r="DD62" t="n">
+        <v>1.786678484</v>
+      </c>
+      <c r="DE62" t="n">
+        <v>1.788113892</v>
+      </c>
+      <c r="DF62" t="n">
+        <v>1.789425758</v>
+      </c>
+      <c r="DG62" t="n">
+        <v>1.790669184</v>
+      </c>
+      <c r="DH62" t="n">
+        <v>1.791800235</v>
+      </c>
+      <c r="DI62" t="n">
+        <v>1.792853448</v>
+      </c>
+      <c r="DJ62" t="n">
+        <v>1.793821307</v>
+      </c>
+      <c r="DK62" t="n">
+        <v>1.794669579</v>
+      </c>
+      <c r="DL62" t="n">
+        <v>1.795424064</v>
+      </c>
+      <c r="DM62" t="n">
+        <v>1.796077278</v>
+      </c>
+      <c r="DN62" t="n">
+        <v>1.796616358</v>
+      </c>
+      <c r="DO62" t="n">
+        <v>1.797025621</v>
+      </c>
+      <c r="DP62" t="n">
+        <v>1.797329038</v>
+      </c>
+      <c r="DQ62" t="n">
+        <v>1.797507273</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.07097000000000001</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.077048071</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.083121474</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.086659202</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.08816945399999999</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.089556793</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.094312151</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.104602943</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.122723266</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.150508995</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.186743343</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.226078752</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.269454824</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.315474523</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.363748248</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.411951713</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.461130286</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.510321243</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.55967566</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.607804449</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.654483488</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.701052706</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.746314751</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.789683306</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.831110787</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.871872794</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0.910961927</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.947922132</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.983138059</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.016955105</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.050121803</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.08004248</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.108002438</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1.136564106</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.163311528</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.188406629</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.21277806</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.236207868</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.25899883</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.280475284</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.301414738</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.321610333</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.341273902</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.359971938</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1.377916822</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.395288234</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.411880109</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>1.427520571</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.44223117</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>1.456495394</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>1.470022222</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.482726787</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.494676216</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>1.506301262</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.517722082</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>1.528032118</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>1.537665398</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.54749881</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>1.556696453</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.565313036</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>1.573667362</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.58168349</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>1.589456844</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>1.596828362</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.603817518</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>1.610660981</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.617208468</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>1.623401362</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>1.629256034</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>1.634969963</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>1.640416626</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>1.645547271</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>1.650375921</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>1.65506486</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>1.659509294</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>1.663669772</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>1.667600474</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>1.671424093</v>
+      </c>
+      <c r="CB63" t="n">
+        <v>1.674937779</v>
+      </c>
+      <c r="CC63" t="n">
+        <v>1.678160176</v>
+      </c>
+      <c r="CD63" t="n">
+        <v>1.681205958</v>
+      </c>
+      <c r="CE63" t="n">
+        <v>1.684043439</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>1.686713189</v>
+      </c>
+      <c r="CG63" t="n">
+        <v>1.689145181</v>
+      </c>
+      <c r="CH63" t="n">
+        <v>1.691436697</v>
+      </c>
+      <c r="CI63" t="n">
+        <v>1.693572415</v>
+      </c>
+      <c r="CJ63" t="n">
+        <v>1.695585555</v>
+      </c>
+      <c r="CK63" t="n">
+        <v>1.697443988</v>
+      </c>
+      <c r="CL63" t="n">
+        <v>1.699162895</v>
+      </c>
+      <c r="CM63" t="n">
+        <v>1.700808205</v>
+      </c>
+      <c r="CN63" t="n">
+        <v>1.702350794</v>
+      </c>
+      <c r="CO63" t="n">
+        <v>1.703785293</v>
+      </c>
+      <c r="CP63" t="n">
+        <v>1.705138187</v>
+      </c>
+      <c r="CQ63" t="n">
+        <v>1.706431961</v>
+      </c>
+      <c r="CR63" t="n">
+        <v>1.707660008</v>
+      </c>
+      <c r="CS63" t="n">
+        <v>1.70881821</v>
+      </c>
+      <c r="CT63" t="n">
+        <v>1.709916018</v>
+      </c>
+      <c r="CU63" t="n">
+        <v>1.710996714</v>
+      </c>
+      <c r="CV63" t="n">
+        <v>1.712076341</v>
+      </c>
+      <c r="CW63" t="n">
+        <v>1.713072065</v>
+      </c>
+      <c r="CX63" t="n">
+        <v>1.714026371</v>
+      </c>
+      <c r="CY63" t="n">
+        <v>1.715029032</v>
+      </c>
+      <c r="CZ63" t="n">
+        <v>1.715988925</v>
+      </c>
+      <c r="DA63" t="n">
+        <v>1.716900784</v>
+      </c>
+      <c r="DB63" t="n">
+        <v>1.717789102</v>
+      </c>
+      <c r="DC63" t="n">
+        <v>1.718637432</v>
+      </c>
+      <c r="DD63" t="n">
+        <v>1.719448399</v>
+      </c>
+      <c r="DE63" t="n">
+        <v>1.720190679</v>
+      </c>
+      <c r="DF63" t="n">
+        <v>1.72088441</v>
+      </c>
+      <c r="DG63" t="n">
+        <v>1.721522334</v>
+      </c>
+      <c r="DH63" t="n">
+        <v>1.722091236</v>
+      </c>
+      <c r="DI63" t="n">
+        <v>1.722581082</v>
+      </c>
+      <c r="DJ63" t="n">
+        <v>1.722989603</v>
+      </c>
+      <c r="DK63" t="n">
+        <v>1.723324526</v>
+      </c>
+      <c r="DL63" t="n">
+        <v>1.723571343</v>
+      </c>
+      <c r="DM63" t="n">
+        <v>1.723724494</v>
+      </c>
+      <c r="DN63" t="n">
+        <v>1.723782922</v>
+      </c>
+      <c r="DO63" t="n">
+        <v>1.723743005</v>
+      </c>
+      <c r="DP63" t="n">
+        <v>1.723598417</v>
+      </c>
+      <c r="DQ63" t="n">
+        <v>1.723348679</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44260</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.07097000000000001</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.076743966</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.07997971</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.08108633899999999</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.08209129599999999</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.083713707</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.089225928</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.101212259</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.122321769</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.154642267</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.196195435</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.242147584</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.292110372</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.34492096</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.399533244</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.455125524</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.511080679</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.566922221</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.622867105</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.677386609</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.730263649</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.783038481</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.8343444169999999</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.8835009069999999</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.930441382</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.976599888</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.020825181</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.062593875</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1.102334574</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.140429703</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.177328934</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1.211258395</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.24251898</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1.274347884</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.303727682</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.331789852</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.358615606</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.38427741</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.408840133</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.432362011</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.454895482</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.476486915</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.497396691</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.517203911</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.536171075</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.5545209</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.572066408</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>1.588653318</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.604327608</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>1.619621449</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>1.634208549</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.647971571</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.660958994</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>1.673618601</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.685934506</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>1.697283588</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>1.707740661</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.718367445</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>1.728138041</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.737416282</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>1.746217202</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.75455664</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.762541372</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>1.77002089</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.77703</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>1.783816176</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.790238888</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>1.796252233</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>1.801883799</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>1.807331949</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>1.812483391</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>1.817301157</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>1.821807379</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>1.826160588</v>
+      </c>
+      <c r="BX64" t="n">
+        <v>1.830270016</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>1.834106312</v>
+      </c>
+      <c r="BZ64" t="n">
+        <v>1.837726053</v>
+      </c>
+      <c r="CA64" t="n">
+        <v>1.84124843</v>
+      </c>
+      <c r="CB64" t="n">
+        <v>1.844458423</v>
+      </c>
+      <c r="CC64" t="n">
+        <v>1.847480852</v>
+      </c>
+      <c r="CD64" t="n">
+        <v>1.850324324</v>
+      </c>
+      <c r="CE64" t="n">
+        <v>1.852997656</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>1.855511912</v>
+      </c>
+      <c r="CG64" t="n">
+        <v>1.857878333</v>
+      </c>
+      <c r="CH64" t="n">
+        <v>1.860107623</v>
+      </c>
+      <c r="CI64" t="n">
+        <v>1.862209987</v>
+      </c>
+      <c r="CJ64" t="n">
+        <v>1.864216354</v>
+      </c>
+      <c r="CK64" t="n">
+        <v>1.866092474</v>
+      </c>
+      <c r="CL64" t="n">
+        <v>1.867850621</v>
+      </c>
+      <c r="CM64" t="n">
+        <v>1.869556325</v>
+      </c>
+      <c r="CN64" t="n">
+        <v>1.871177806</v>
+      </c>
+      <c r="CO64" t="n">
+        <v>1.872706641</v>
+      </c>
+      <c r="CP64" t="n">
+        <v>1.874168288</v>
+      </c>
+      <c r="CQ64" t="n">
+        <v>1.875584917</v>
+      </c>
+      <c r="CR64" t="n">
+        <v>1.876947109</v>
+      </c>
+      <c r="CS64" t="n">
+        <v>1.878247516</v>
+      </c>
+      <c r="CT64" t="n">
+        <v>1.879493794</v>
+      </c>
+      <c r="CU64" t="n">
+        <v>1.880732847</v>
+      </c>
+      <c r="CV64" t="n">
+        <v>1.881968477</v>
+      </c>
+      <c r="CW64" t="n">
+        <v>1.883141098</v>
+      </c>
+      <c r="CX64" t="n">
+        <v>1.884258014</v>
+      </c>
+      <c r="CY64" t="n">
+        <v>1.885435805</v>
+      </c>
+      <c r="CZ64" t="n">
+        <v>1.88655577</v>
+      </c>
+      <c r="DA64" t="n">
+        <v>1.887648677</v>
+      </c>
+      <c r="DB64" t="n">
+        <v>1.888707725</v>
+      </c>
+      <c r="DC64" t="n">
+        <v>1.889726373</v>
+      </c>
+      <c r="DD64" t="n">
+        <v>1.890698327</v>
+      </c>
+      <c r="DE64" t="n">
+        <v>1.891617526</v>
+      </c>
+      <c r="DF64" t="n">
+        <v>1.892478132</v>
+      </c>
+      <c r="DG64" t="n">
+        <v>1.893282896</v>
+      </c>
+      <c r="DH64" t="n">
+        <v>1.894016426</v>
+      </c>
+      <c r="DI64" t="n">
+        <v>1.894666616</v>
+      </c>
+      <c r="DJ64" t="n">
+        <v>1.895230985</v>
+      </c>
+      <c r="DK64" t="n">
+        <v>1.895722113</v>
+      </c>
+      <c r="DL64" t="n">
+        <v>1.896121709</v>
+      </c>
+      <c r="DM64" t="n">
+        <v>1.896422332</v>
+      </c>
+      <c r="DN64" t="n">
+        <v>1.896622789</v>
+      </c>
+      <c r="DO64" t="n">
+        <v>1.896723871</v>
+      </c>
+      <c r="DP64" t="n">
+        <v>1.896715802</v>
+      </c>
+      <c r="DQ64" t="n">
+        <v>1.896596452</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44267</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.07097000000000001</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.073196026</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.076533796</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.07966775299999999</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.081078236</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.085649583</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.094414556</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.107938339</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.129168562</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.160751066</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.201523296</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.247352155</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.298243352</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.353184804</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.410671674</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.469404056</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.528405686</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.586954934</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.645221153</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.701599716</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.7558680169999999</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.809606283</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.861484122</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.9108976009999999</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.957852164</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1.003831748</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.047728568</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.089063844</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1.128295987</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.165830076</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.202137677</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.235502988</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.266247292</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1.297576755</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.326541856</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.354272521</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.380863589</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.406399684</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.430956557</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.454602218</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.4773979</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.499387673</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.5207928</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.541129367</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1.560617804</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.579442675</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.597370691</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>1.614208651</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.629974421</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>1.645180639</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>1.659522114</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.672920627</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.685459012</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>1.697597465</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.709344206</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>1.720132235</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>1.73005898</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.740154398</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>1.749465166</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.758355833</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>1.766858568</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.775001192</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1.782884141</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>1.790349221</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.797419365</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>1.804336614</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.81095152</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>1.817207374</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>1.823122986</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>1.828900091</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>1.83441297</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>1.839614104</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>1.844519188</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>1.84929495</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>1.853836705</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>1.858105374</v>
+      </c>
+      <c r="BZ65" t="n">
+        <v>1.862157634</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>1.866122357</v>
+      </c>
+      <c r="CB65" t="n">
+        <v>1.869752079</v>
+      </c>
+      <c r="CC65" t="n">
+        <v>1.873181944</v>
+      </c>
+      <c r="CD65" t="n">
+        <v>1.876416868</v>
+      </c>
+      <c r="CE65" t="n">
+        <v>1.879462791</v>
+      </c>
+      <c r="CF65" t="n">
+        <v>1.882330712</v>
+      </c>
+      <c r="CG65" t="n">
+        <v>1.885032516</v>
+      </c>
+      <c r="CH65" t="n">
+        <v>1.887579523</v>
+      </c>
+      <c r="CI65" t="n">
+        <v>1.889982521</v>
+      </c>
+      <c r="CJ65" t="n">
+        <v>1.89227603</v>
+      </c>
+      <c r="CK65" t="n">
+        <v>1.894420097</v>
+      </c>
+      <c r="CL65" t="n">
+        <v>1.89642802</v>
+      </c>
+      <c r="CM65" t="n">
+        <v>1.898373892</v>
+      </c>
+      <c r="CN65" t="n">
+        <v>1.900220691</v>
+      </c>
+      <c r="CO65" t="n">
+        <v>1.901958236</v>
+      </c>
+      <c r="CP65" t="n">
+        <v>1.903614937</v>
+      </c>
+      <c r="CQ65" t="n">
+        <v>1.905215296</v>
+      </c>
+      <c r="CR65" t="n">
+        <v>1.906748076</v>
+      </c>
+      <c r="CS65" t="n">
+        <v>1.908204665</v>
+      </c>
+      <c r="CT65" t="n">
+        <v>1.909593483</v>
+      </c>
+      <c r="CU65" t="n">
+        <v>1.91096633</v>
+      </c>
+      <c r="CV65" t="n">
+        <v>1.912326573</v>
+      </c>
+      <c r="CW65" t="n">
+        <v>1.913608513</v>
+      </c>
+      <c r="CX65" t="n">
+        <v>1.914820843</v>
+      </c>
+      <c r="CY65" t="n">
+        <v>1.916089616</v>
+      </c>
+      <c r="CZ65" t="n">
+        <v>1.91728693</v>
+      </c>
+      <c r="DA65" t="n">
+        <v>1.918446607</v>
+      </c>
+      <c r="DB65" t="n">
+        <v>1.919561826</v>
+      </c>
+      <c r="DC65" t="n">
+        <v>1.920626027</v>
+      </c>
+      <c r="DD65" t="n">
+        <v>1.921632895</v>
+      </c>
+      <c r="DE65" t="n">
+        <v>1.922576349</v>
+      </c>
+      <c r="DF65" t="n">
+        <v>1.923450536</v>
+      </c>
+      <c r="DG65" t="n">
+        <v>1.92425816</v>
+      </c>
+      <c r="DH65" t="n">
+        <v>1.924983603</v>
+      </c>
+      <c r="DI65" t="n">
+        <v>1.925615009</v>
+      </c>
+      <c r="DJ65" t="n">
+        <v>1.926150234</v>
+      </c>
+      <c r="DK65" t="n">
+        <v>1.926600697</v>
+      </c>
+      <c r="DL65" t="n">
+        <v>1.926948617</v>
+      </c>
+      <c r="DM65" t="n">
+        <v>1.927187282</v>
+      </c>
+      <c r="DN65" t="n">
+        <v>1.92731584</v>
+      </c>
+      <c r="DO65" t="n">
+        <v>1.927332495</v>
+      </c>
+      <c r="DP65" t="n">
+        <v>1.927228934</v>
+      </c>
+      <c r="DQ65" t="n">
+        <v>1.927004233</v>
       </c>
     </row>
   </sheetData>
@@ -21253,7 +24173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ57"/>
+  <dimension ref="A1:DQ65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42063,6 +44983,2926 @@
         <v>1.46470504540077</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44218</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.06812779400000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.064506612</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.063187147</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.065446449</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.07129311100000001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.08151447000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.100882419</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.130892031</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.174577442</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.233651465</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.308151551</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.394715393</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.481451011</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.566825032</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.649807548</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.7286315290000001</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.809453144</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.893237916</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.979047424</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.065307858</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.146494527</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.220766046</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.287281192</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.346436749</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1.398054695</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.442877472</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.480451619</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1.511334892</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.539853023</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.567456413</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.594061714</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.619205159</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1.64322795</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.666415606</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.688887383</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.709908869</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.728965715</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.748015201</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.765818272</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.781852297</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.795724192</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.807136762</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.815880104</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1.82199489</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.825636227</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.826762432</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>1.825243172</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.821514497</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>1.817715163</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>1.814161265</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.810833889</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.807739818</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>1.805083495</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.802685341</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>1.800520636</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>1.798577492</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.797064325</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>1.795822064</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.794900556</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>1.793957257</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.792924244</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1.791574826</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>1.789835776</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.78771316</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>1.785272132</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.782506533</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>1.779359443</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>1.775773539</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>1.771988197</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>1.767806263</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>1.763199258</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>1.758203346</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>1.753013284</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>1.747411036</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>1.741376943</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>1.734977482</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>1.728301669</v>
+      </c>
+      <c r="CB58" t="n">
+        <v>1.721275197</v>
+      </c>
+      <c r="CC58" t="n">
+        <v>1.713808057</v>
+      </c>
+      <c r="CD58" t="n">
+        <v>1.705929232</v>
+      </c>
+      <c r="CE58" t="n">
+        <v>1.698782355</v>
+      </c>
+      <c r="CF58" t="n">
+        <v>1.691771694</v>
+      </c>
+      <c r="CG58" t="n">
+        <v>1.684916172</v>
+      </c>
+      <c r="CH58" t="n">
+        <v>1.678662932</v>
+      </c>
+      <c r="CI58" t="n">
+        <v>1.672792472</v>
+      </c>
+      <c r="CJ58" t="n">
+        <v>1.667310196</v>
+      </c>
+      <c r="CK58" t="n">
+        <v>1.662198386</v>
+      </c>
+      <c r="CL58" t="n">
+        <v>1.657451499</v>
+      </c>
+      <c r="CM58" t="n">
+        <v>1.653094594</v>
+      </c>
+      <c r="CN58" t="n">
+        <v>1.649133297</v>
+      </c>
+      <c r="CO58" t="n">
+        <v>1.645535005</v>
+      </c>
+      <c r="CP58" t="n">
+        <v>1.642260661</v>
+      </c>
+      <c r="CQ58" t="n">
+        <v>1.639421269</v>
+      </c>
+      <c r="CR58" t="n">
+        <v>1.63698523</v>
+      </c>
+      <c r="CS58" t="n">
+        <v>1.634883683</v>
+      </c>
+      <c r="CT58" t="n">
+        <v>1.633110698</v>
+      </c>
+      <c r="CU58" t="n">
+        <v>1.631834323</v>
+      </c>
+      <c r="CV58" t="n">
+        <v>1.630923707</v>
+      </c>
+      <c r="CW58" t="n">
+        <v>1.630356247</v>
+      </c>
+      <c r="CX58" t="n">
+        <v>1.629931351</v>
+      </c>
+      <c r="CY58" t="n">
+        <v>1.629038866</v>
+      </c>
+      <c r="CZ58" t="n">
+        <v>1.62731754</v>
+      </c>
+      <c r="DA58" t="n">
+        <v>1.624759705</v>
+      </c>
+      <c r="DB58" t="n">
+        <v>1.621193566</v>
+      </c>
+      <c r="DC58" t="n">
+        <v>1.617122615</v>
+      </c>
+      <c r="DD58" t="n">
+        <v>1.612128829</v>
+      </c>
+      <c r="DE58" t="n">
+        <v>1.606083009</v>
+      </c>
+      <c r="DF58" t="n">
+        <v>1.599417556</v>
+      </c>
+      <c r="DG58" t="n">
+        <v>1.59193892</v>
+      </c>
+      <c r="DH58" t="n">
+        <v>1.583632739</v>
+      </c>
+      <c r="DI58" t="n">
+        <v>1.574521747</v>
+      </c>
+      <c r="DJ58" t="n">
+        <v>1.564530643</v>
+      </c>
+      <c r="DK58" t="n">
+        <v>1.55388722</v>
+      </c>
+      <c r="DL58" t="n">
+        <v>1.542306852</v>
+      </c>
+      <c r="DM58" t="n">
+        <v>1.529801068</v>
+      </c>
+      <c r="DN58" t="n">
+        <v>1.516551013</v>
+      </c>
+      <c r="DO58" t="n">
+        <v>1.502660837</v>
+      </c>
+      <c r="DP58" t="n">
+        <v>1.487797939</v>
+      </c>
+      <c r="DQ58" t="n">
+        <v>1.471994215</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.062999999</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.06899491100000001</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.073394127</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.074412431</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.071314628</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.06934187</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.072724659</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.09237208600000001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.128989093</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.176450229</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.233806634</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.300376326</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.374732199</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.455087223</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.542630283</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.635617692</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.730044393</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.821738301</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.913618318</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.000208173</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.082531574</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.159754014</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.22994337</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.293546291</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.35052105</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1.400980336</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.444806046</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.482406939</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1.513706084</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.542789599</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.570716434</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1.597220655</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.621798806</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1.645211103</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.667492232</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.688645064</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.708049136</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.725227923</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.742114049</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.757381434</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.770771718</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1.782280719</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.7918978</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.799291872</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.804543247</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.807852233</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.809018388</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>1.808086958</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.805302028</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>1.80253336</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>1.799733024</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.797086432</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.794498597</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>1.792328319</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.790137927</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>1.788101268</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>1.786114659</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.784543101</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>1.782962613</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.781609499</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>1.7801204</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.778680306</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>1.776596951</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>1.774284451</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.771589136</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>1.768593728</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.76521552</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>1.761482094</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>1.75730845</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>1.752949626</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>1.748150608</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>1.742937806</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>1.737331198</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>1.731622577</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>1.725332636</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>1.718679738</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>1.711661491</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>1.704449409</v>
+      </c>
+      <c r="CB59" t="n">
+        <v>1.69671564</v>
+      </c>
+      <c r="CC59" t="n">
+        <v>1.688607413</v>
+      </c>
+      <c r="CD59" t="n">
+        <v>1.680100571</v>
+      </c>
+      <c r="CE59" t="n">
+        <v>1.672466596</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>1.664814092</v>
+      </c>
+      <c r="CG59" t="n">
+        <v>1.657444895</v>
+      </c>
+      <c r="CH59" t="n">
+        <v>1.650732264</v>
+      </c>
+      <c r="CI59" t="n">
+        <v>1.644654019</v>
+      </c>
+      <c r="CJ59" t="n">
+        <v>1.638574122</v>
+      </c>
+      <c r="CK59" t="n">
+        <v>1.633123654</v>
+      </c>
+      <c r="CL59" t="n">
+        <v>1.628082393</v>
+      </c>
+      <c r="CM59" t="n">
+        <v>1.623482296</v>
+      </c>
+      <c r="CN59" t="n">
+        <v>1.619291374</v>
+      </c>
+      <c r="CO59" t="n">
+        <v>1.615520272</v>
+      </c>
+      <c r="CP59" t="n">
+        <v>1.612096114</v>
+      </c>
+      <c r="CQ59" t="n">
+        <v>1.609237482</v>
+      </c>
+      <c r="CR59" t="n">
+        <v>1.606700505</v>
+      </c>
+      <c r="CS59" t="n">
+        <v>1.604592583</v>
+      </c>
+      <c r="CT59" t="n">
+        <v>1.602829589</v>
+      </c>
+      <c r="CU59" t="n">
+        <v>1.601697872</v>
+      </c>
+      <c r="CV59" t="n">
+        <v>1.600863094</v>
+      </c>
+      <c r="CW59" t="n">
+        <v>1.600457352</v>
+      </c>
+      <c r="CX59" t="n">
+        <v>1.600202908</v>
+      </c>
+      <c r="CY59" t="n">
+        <v>1.599620364</v>
+      </c>
+      <c r="CZ59" t="n">
+        <v>1.598134243</v>
+      </c>
+      <c r="DA59" t="n">
+        <v>1.595893924</v>
+      </c>
+      <c r="DB59" t="n">
+        <v>1.592688117</v>
+      </c>
+      <c r="DC59" t="n">
+        <v>1.589049184</v>
+      </c>
+      <c r="DD59" t="n">
+        <v>1.584425517</v>
+      </c>
+      <c r="DE59" t="n">
+        <v>1.578853975</v>
+      </c>
+      <c r="DF59" t="n">
+        <v>1.572685908</v>
+      </c>
+      <c r="DG59" t="n">
+        <v>1.565736055</v>
+      </c>
+      <c r="DH59" t="n">
+        <v>1.558011762</v>
+      </c>
+      <c r="DI59" t="n">
+        <v>1.549510639</v>
+      </c>
+      <c r="DJ59" t="n">
+        <v>1.54016835</v>
+      </c>
+      <c r="DK59" t="n">
+        <v>1.53017811</v>
+      </c>
+      <c r="DL59" t="n">
+        <v>1.51934682</v>
+      </c>
+      <c r="DM59" t="n">
+        <v>1.507607056</v>
+      </c>
+      <c r="DN59" t="n">
+        <v>1.495193399</v>
+      </c>
+      <c r="DO59" t="n">
+        <v>1.482193627</v>
+      </c>
+      <c r="DP59" t="n">
+        <v>1.468098898</v>
+      </c>
+      <c r="DQ59" t="n">
+        <v>1.453210718</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44232</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.063999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.07339082299999999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.077427054</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.076964161</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.07877983199999999</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.085197647</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.09892037300000001</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.127985753</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.172727237</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.229432437</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.2979945</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.377600447</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.466068273</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.559036266</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.6576547700000001</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.75934651</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.858824272</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.957086354</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.057420807</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.152308842</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.244170816</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.330427267</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.408613282</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.479230862</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.542223828</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1.597744807</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.645634309</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.686342463</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1.719849491</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.750953645</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.780848887</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1.809265321</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.835639058</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1.860853684</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.884880088</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.907761661</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.928773643</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.947463083</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.966056764</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.982807503</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.99734052</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2.009846224</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>2.020105435</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>2.027516836</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.032452629</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>2.035037359</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>2.035043967</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.032506796</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>2.027757175</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>2.023076473</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>2.018370045</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>2.013891835</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>2.009540695</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>2.00574758</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.001946534</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>1.998373675</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>1.994915535</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.992010525</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>1.989114755</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.986529253</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>1.983834158</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.981351336</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1.978228001</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>1.9749063</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.971292653</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>1.967449718</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.96327811</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>1.958810971</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>1.953942967</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>1.948990137</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>1.943636465</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>1.937923586</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>1.931854736</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>1.925802576</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>1.919193572</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>1.912282607</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>1.905049608</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>1.897721435</v>
+      </c>
+      <c r="CB60" t="n">
+        <v>1.889911249</v>
+      </c>
+      <c r="CC60" t="n">
+        <v>1.881806984</v>
+      </c>
+      <c r="CD60" t="n">
+        <v>1.873316047</v>
+      </c>
+      <c r="CE60" t="n">
+        <v>1.86578108</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>1.858299416</v>
+      </c>
+      <c r="CG60" t="n">
+        <v>1.851021115</v>
+      </c>
+      <c r="CH60" t="n">
+        <v>1.844607389</v>
+      </c>
+      <c r="CI60" t="n">
+        <v>1.838835479</v>
+      </c>
+      <c r="CJ60" t="n">
+        <v>1.833092034</v>
+      </c>
+      <c r="CK60" t="n">
+        <v>1.828001639</v>
+      </c>
+      <c r="CL60" t="n">
+        <v>1.823373773</v>
+      </c>
+      <c r="CM60" t="n">
+        <v>1.819258061</v>
+      </c>
+      <c r="CN60" t="n">
+        <v>1.815586962</v>
+      </c>
+      <c r="CO60" t="n">
+        <v>1.812382974</v>
+      </c>
+      <c r="CP60" t="n">
+        <v>1.809554404</v>
+      </c>
+      <c r="CQ60" t="n">
+        <v>1.807376281</v>
+      </c>
+      <c r="CR60" t="n">
+        <v>1.805556343</v>
+      </c>
+      <c r="CS60" t="n">
+        <v>1.804213801</v>
+      </c>
+      <c r="CT60" t="n">
+        <v>1.803222361</v>
+      </c>
+      <c r="CU60" t="n">
+        <v>1.802966001</v>
+      </c>
+      <c r="CV60" t="n">
+        <v>1.803040056</v>
+      </c>
+      <c r="CW60" t="n">
+        <v>1.803591497</v>
+      </c>
+      <c r="CX60" t="n">
+        <v>1.804266797</v>
+      </c>
+      <c r="CY60" t="n">
+        <v>1.804545849</v>
+      </c>
+      <c r="CZ60" t="n">
+        <v>1.803735744</v>
+      </c>
+      <c r="DA60" t="n">
+        <v>1.802022691</v>
+      </c>
+      <c r="DB60" t="n">
+        <v>1.799118953</v>
+      </c>
+      <c r="DC60" t="n">
+        <v>1.795642029</v>
+      </c>
+      <c r="DD60" t="n">
+        <v>1.791044129</v>
+      </c>
+      <c r="DE60" t="n">
+        <v>1.785186389</v>
+      </c>
+      <c r="DF60" t="n">
+        <v>1.778726316</v>
+      </c>
+      <c r="DG60" t="n">
+        <v>1.771263353</v>
+      </c>
+      <c r="DH60" t="n">
+        <v>1.762850323</v>
+      </c>
+      <c r="DI60" t="n">
+        <v>1.753491873</v>
+      </c>
+      <c r="DJ60" t="n">
+        <v>1.743105523</v>
+      </c>
+      <c r="DK60" t="n">
+        <v>1.731938994</v>
+      </c>
+      <c r="DL60" t="n">
+        <v>1.71974472</v>
+      </c>
+      <c r="DM60" t="n">
+        <v>1.7064557</v>
+      </c>
+      <c r="DN60" t="n">
+        <v>1.692324358</v>
+      </c>
+      <c r="DO60" t="n">
+        <v>1.677491636</v>
+      </c>
+      <c r="DP60" t="n">
+        <v>1.661336739</v>
+      </c>
+      <c r="DQ60" t="n">
+        <v>1.644216279</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.06999999799999999</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.077531531</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.080036816</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.080114322</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.089059238</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.102016806</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.119122844</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.150078669</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.196232034</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.256395316</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.331276962</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.421648014</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.5228863969999999</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.622390777</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.725744662</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.826295025</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.9260088869999999</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.023945059</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.119768625</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.213497963</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.304329175</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.389054486</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.466661902</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.537916965</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.600850867</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1.656941807</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.706677796</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.749155944</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1.78471952</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.817806512</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.849608225</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1.880461388</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.909005115</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.934726479</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.960665685</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.984790597</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>2.006833623</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2.027229928</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>2.046628919</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>2.064162986</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>2.079752125</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>2.092481673</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>2.101666845</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>2.107421058</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2.109627034</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>2.108636099</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>2.104027954</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.095912969</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2.084939297</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>2.074484534</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>2.064743265</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>2.056084407</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>2.048445295</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>2.04220835</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.036761047</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>2.03250852</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2.028937495</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>2.026966785</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>2.025921927</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>2.025751237</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2.026406185</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>2.027025477</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2.026977419</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>2.026374869</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>2.025105115</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2.023506307</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>2.021240307</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>2.018385765</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>2.014857474</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>2.011115552</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>2.006579411</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>2.001476612</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>1.99573998</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>1.989783421</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>1.982999269</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>1.975648561</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>1.967714067</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>1.959438063</v>
+      </c>
+      <c r="CB61" t="n">
+        <v>1.950403303</v>
+      </c>
+      <c r="CC61" t="n">
+        <v>1.940580852</v>
+      </c>
+      <c r="CD61" t="n">
+        <v>1.930587742</v>
+      </c>
+      <c r="CE61" t="n">
+        <v>1.921513205</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>1.912340417</v>
+      </c>
+      <c r="CG61" t="n">
+        <v>1.904089912</v>
+      </c>
+      <c r="CH61" t="n">
+        <v>1.896355424</v>
+      </c>
+      <c r="CI61" t="n">
+        <v>1.889439525</v>
+      </c>
+      <c r="CJ61" t="n">
+        <v>1.883039574</v>
+      </c>
+      <c r="CK61" t="n">
+        <v>1.87725641</v>
+      </c>
+      <c r="CL61" t="n">
+        <v>1.871991682</v>
+      </c>
+      <c r="CM61" t="n">
+        <v>1.867540338</v>
+      </c>
+      <c r="CN61" t="n">
+        <v>1.863607384</v>
+      </c>
+      <c r="CO61" t="n">
+        <v>1.86025811</v>
+      </c>
+      <c r="CP61" t="n">
+        <v>1.857468485</v>
+      </c>
+      <c r="CQ61" t="n">
+        <v>1.855489174</v>
+      </c>
+      <c r="CR61" t="n">
+        <v>1.854017085</v>
+      </c>
+      <c r="CS61" t="n">
+        <v>1.853175274</v>
+      </c>
+      <c r="CT61" t="n">
+        <v>1.852817618</v>
+      </c>
+      <c r="CU61" t="n">
+        <v>1.853358876</v>
+      </c>
+      <c r="CV61" t="n">
+        <v>1.854387333</v>
+      </c>
+      <c r="CW61" t="n">
+        <v>1.856223402</v>
+      </c>
+      <c r="CX61" t="n">
+        <v>1.858045757</v>
+      </c>
+      <c r="CY61" t="n">
+        <v>1.859410919</v>
+      </c>
+      <c r="CZ61" t="n">
+        <v>1.859834258</v>
+      </c>
+      <c r="DA61" t="n">
+        <v>1.859005607</v>
+      </c>
+      <c r="DB61" t="n">
+        <v>1.857163103</v>
+      </c>
+      <c r="DC61" t="n">
+        <v>1.854654781</v>
+      </c>
+      <c r="DD61" t="n">
+        <v>1.85070351</v>
+      </c>
+      <c r="DE61" t="n">
+        <v>1.845898879</v>
+      </c>
+      <c r="DF61" t="n">
+        <v>1.839983634</v>
+      </c>
+      <c r="DG61" t="n">
+        <v>1.833233931</v>
+      </c>
+      <c r="DH61" t="n">
+        <v>1.825373712</v>
+      </c>
+      <c r="DI61" t="n">
+        <v>1.816391852</v>
+      </c>
+      <c r="DJ61" t="n">
+        <v>1.806407915</v>
+      </c>
+      <c r="DK61" t="n">
+        <v>1.795682836</v>
+      </c>
+      <c r="DL61" t="n">
+        <v>1.783612601</v>
+      </c>
+      <c r="DM61" t="n">
+        <v>1.770501774</v>
+      </c>
+      <c r="DN61" t="n">
+        <v>1.756463944</v>
+      </c>
+      <c r="DO61" t="n">
+        <v>1.74167056</v>
+      </c>
+      <c r="DP61" t="n">
+        <v>1.725472536</v>
+      </c>
+      <c r="DQ61" t="n">
+        <v>1.708234382</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.071799997</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.08665917200000001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.092566379</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.092994468</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.09513007</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.106768489</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.131749913</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.176770446</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.241362841</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.321740298</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.418731413</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.532056701</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.651874857</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.776166743</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.901938771</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.026393098</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.145560923</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.25400454</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.35708568</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.447890755</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.529391716</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.605196454</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.673671182</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.737190073</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.794879127</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1.846972224</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.893230659</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.934144274</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1.96936349</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.002460494</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>2.03444292</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>2.065124352</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>2.092287587</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2.119004936</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.144390734</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>2.168546559</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>2.190805056</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.210259547</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>2.229600597</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>2.247028682</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2.262177548</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>2.273384593</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>2.280354974</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>2.282891326</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.281013172</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>2.274858882</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>2.264290353</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>2.249165643</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>2.230632396</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>2.213055762</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>2.196639208</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>2.181902508</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>2.168844743</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>2.15781245</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>2.148076581</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>2.139958958</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>2.133488166</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>2.129002937</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>2.125911629</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>2.124621369</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>2.124448172</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>2.124422885</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>2.123628951</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2.12246558</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>2.120799705</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2.118604714</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>2.115960473</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>2.112787135</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>2.108988911</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>2.104933073</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>2.10025238</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>2.095009521</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>2.089170948</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>2.083195874</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>2.076429325</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>2.069149349</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>2.061326533</v>
+      </c>
+      <c r="CA62" t="n">
+        <v>2.05323527</v>
+      </c>
+      <c r="CB62" t="n">
+        <v>2.044426349</v>
+      </c>
+      <c r="CC62" t="n">
+        <v>2.035113877</v>
+      </c>
+      <c r="CD62" t="n">
+        <v>2.025205811</v>
+      </c>
+      <c r="CE62" t="n">
+        <v>2.016325323</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>2.007430497</v>
+      </c>
+      <c r="CG62" t="n">
+        <v>1.998812019</v>
+      </c>
+      <c r="CH62" t="n">
+        <v>1.990974626</v>
+      </c>
+      <c r="CI62" t="n">
+        <v>1.983884021</v>
+      </c>
+      <c r="CJ62" t="n">
+        <v>1.976740471</v>
+      </c>
+      <c r="CK62" t="n">
+        <v>1.970343657</v>
+      </c>
+      <c r="CL62" t="n">
+        <v>1.964426987</v>
+      </c>
+      <c r="CM62" t="n">
+        <v>1.958933365</v>
+      </c>
+      <c r="CN62" t="n">
+        <v>1.954033995</v>
+      </c>
+      <c r="CO62" t="n">
+        <v>1.949557634</v>
+      </c>
+      <c r="CP62" t="n">
+        <v>1.945455496</v>
+      </c>
+      <c r="CQ62" t="n">
+        <v>1.942045102</v>
+      </c>
+      <c r="CR62" t="n">
+        <v>1.938978205</v>
+      </c>
+      <c r="CS62" t="n">
+        <v>1.936401945</v>
+      </c>
+      <c r="CT62" t="n">
+        <v>1.934189432</v>
+      </c>
+      <c r="CU62" t="n">
+        <v>1.932765572</v>
+      </c>
+      <c r="CV62" t="n">
+        <v>1.931692611</v>
+      </c>
+      <c r="CW62" t="n">
+        <v>1.931111455</v>
+      </c>
+      <c r="CX62" t="n">
+        <v>1.930545179</v>
+      </c>
+      <c r="CY62" t="n">
+        <v>1.929864647</v>
+      </c>
+      <c r="CZ62" t="n">
+        <v>1.928241136</v>
+      </c>
+      <c r="DA62" t="n">
+        <v>1.925906001</v>
+      </c>
+      <c r="DB62" t="n">
+        <v>1.922568341</v>
+      </c>
+      <c r="DC62" t="n">
+        <v>1.918816951</v>
+      </c>
+      <c r="DD62" t="n">
+        <v>1.914133169</v>
+      </c>
+      <c r="DE62" t="n">
+        <v>1.908449438</v>
+      </c>
+      <c r="DF62" t="n">
+        <v>1.902211985</v>
+      </c>
+      <c r="DG62" t="n">
+        <v>1.895127803</v>
+      </c>
+      <c r="DH62" t="n">
+        <v>1.887440559</v>
+      </c>
+      <c r="DI62" t="n">
+        <v>1.878906674</v>
+      </c>
+      <c r="DJ62" t="n">
+        <v>1.869511869</v>
+      </c>
+      <c r="DK62" t="n">
+        <v>1.859542807</v>
+      </c>
+      <c r="DL62" t="n">
+        <v>1.848712938</v>
+      </c>
+      <c r="DM62" t="n">
+        <v>1.836986194</v>
+      </c>
+      <c r="DN62" t="n">
+        <v>1.824551206</v>
+      </c>
+      <c r="DO62" t="n">
+        <v>1.811632366</v>
+      </c>
+      <c r="DP62" t="n">
+        <v>1.797585204</v>
+      </c>
+      <c r="DQ62" t="n">
+        <v>1.78275623</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.075999998</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.08798291900000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.092538129</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.091523568</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.093769937</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.116335636</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.164437734</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.24820959</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.366071879</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.493734218</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.61943041</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.739876126</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.860402237</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.975317902</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.085068471</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.187363276</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.285419485</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.37613436</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.460269186</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.536514247</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.606373601</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.670335179</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.727424846</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.777517055</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.821614292</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1.859605357</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.890848077</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.915533198</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>1.934809933</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.952909852</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.96997814</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.986159051</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>2.001888926</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>2.017396981</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.032153268</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>2.04618733</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>2.059969316</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>2.073074354</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>2.085644142</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>2.097530436</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>2.108825436</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>2.117870843</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>2.124422938</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>2.128529695</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.130236894</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>2.129382353</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>2.125975526</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>2.120156926</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>2.112482254</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>2.104473112</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>2.096820152</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>2.08961782</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>2.082926073</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>2.076489893</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>2.070054836</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>2.064426782</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>2.059365084</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>2.054180388</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>2.049512959</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>2.045343566</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.041417624</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>2.037230623</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>2.032609142</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>2.027688424</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>2.022560004</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>2.016903217</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>2.010865027</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>2.004543306</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>1.998002242</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>1.990919969</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>1.983465627</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>1.975743465</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>1.967789454</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>1.959282</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>1.950412111</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>1.941290978</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>1.93181367</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>1.921660751</v>
+      </c>
+      <c r="CB63" t="n">
+        <v>1.911364339</v>
+      </c>
+      <c r="CC63" t="n">
+        <v>1.900940322</v>
+      </c>
+      <c r="CD63" t="n">
+        <v>1.890186619</v>
+      </c>
+      <c r="CE63" t="n">
+        <v>1.879850456</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>1.869983827</v>
+      </c>
+      <c r="CG63" t="n">
+        <v>1.8608904</v>
+      </c>
+      <c r="CH63" t="n">
+        <v>1.852265594</v>
+      </c>
+      <c r="CI63" t="n">
+        <v>1.844211718</v>
+      </c>
+      <c r="CJ63" t="n">
+        <v>1.836641473</v>
+      </c>
+      <c r="CK63" t="n">
+        <v>1.829721464</v>
+      </c>
+      <c r="CL63" t="n">
+        <v>1.82347283</v>
+      </c>
+      <c r="CM63" t="n">
+        <v>1.817640418</v>
+      </c>
+      <c r="CN63" t="n">
+        <v>1.812371851</v>
+      </c>
+      <c r="CO63" t="n">
+        <v>1.807750038</v>
+      </c>
+      <c r="CP63" t="n">
+        <v>1.803723471</v>
+      </c>
+      <c r="CQ63" t="n">
+        <v>1.800210126</v>
+      </c>
+      <c r="CR63" t="n">
+        <v>1.797248701</v>
+      </c>
+      <c r="CS63" t="n">
+        <v>1.794886524</v>
+      </c>
+      <c r="CT63" t="n">
+        <v>1.793215729</v>
+      </c>
+      <c r="CU63" t="n">
+        <v>1.792135333</v>
+      </c>
+      <c r="CV63" t="n">
+        <v>1.791343173</v>
+      </c>
+      <c r="CW63" t="n">
+        <v>1.791318076</v>
+      </c>
+      <c r="CX63" t="n">
+        <v>1.791776464</v>
+      </c>
+      <c r="CY63" t="n">
+        <v>1.791502363</v>
+      </c>
+      <c r="CZ63" t="n">
+        <v>1.790518148</v>
+      </c>
+      <c r="DA63" t="n">
+        <v>1.788860723</v>
+      </c>
+      <c r="DB63" t="n">
+        <v>1.7864746</v>
+      </c>
+      <c r="DC63" t="n">
+        <v>1.783313376</v>
+      </c>
+      <c r="DD63" t="n">
+        <v>1.779342803</v>
+      </c>
+      <c r="DE63" t="n">
+        <v>1.774747639</v>
+      </c>
+      <c r="DF63" t="n">
+        <v>1.769374052</v>
+      </c>
+      <c r="DG63" t="n">
+        <v>1.763170975</v>
+      </c>
+      <c r="DH63" t="n">
+        <v>1.756206776</v>
+      </c>
+      <c r="DI63" t="n">
+        <v>1.748580567</v>
+      </c>
+      <c r="DJ63" t="n">
+        <v>1.740296875</v>
+      </c>
+      <c r="DK63" t="n">
+        <v>1.731083124</v>
+      </c>
+      <c r="DL63" t="n">
+        <v>1.721126487</v>
+      </c>
+      <c r="DM63" t="n">
+        <v>1.710541028</v>
+      </c>
+      <c r="DN63" t="n">
+        <v>1.699276336</v>
+      </c>
+      <c r="DO63" t="n">
+        <v>1.687052749</v>
+      </c>
+      <c r="DP63" t="n">
+        <v>1.674105102</v>
+      </c>
+      <c r="DQ63" t="n">
+        <v>1.660561854</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44260</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0757</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.08208412399999999</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.082191033</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.08400421499999999</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.088925609</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.11502683</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.17118537</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.268792139</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.405677053</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.552297209</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.6956564079999999</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.834298511</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.9706001399999999</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.100073704</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.222020052</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.337805004</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.447252247</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.548829173</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.643556293</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.729957808</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.809600183</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.882393192</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.94706472</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.003484728</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>2.052803912</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>2.094855322</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>2.128929588</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.155260628</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>2.175122529</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>2.193063564</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>2.209534179</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>2.22491472</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>2.239263456</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>2.252789419</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.265003254</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2.276348064</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>2.286809267</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>2.296130709</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>2.30432718</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>2.311634878</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2.317998181</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>2.32303305</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>2.326748811</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>2.329251615</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>2.330569427</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>2.330533059</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>2.329142914</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>2.326511885</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>2.322940079</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>2.31847952</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>2.313394718</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>2.307801519</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>2.301832009</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>2.295140657</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.287536782</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>2.27969863</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>2.271649809</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>2.262341518</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>2.252783502</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>2.242678363</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2.232125645</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>2.221566303</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>2.21100976</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>2.200696044</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>2.190654153</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>2.180495645</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>2.17045629</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>2.160654015</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>2.151119122</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>2.141478037</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>2.131955548</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>2.122664398</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>2.113636683</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>2.104512869</v>
+      </c>
+      <c r="BX64" t="n">
+        <v>2.095506939</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>2.086739277</v>
+      </c>
+      <c r="BZ64" t="n">
+        <v>2.078137741</v>
+      </c>
+      <c r="CA64" t="n">
+        <v>2.069321105</v>
+      </c>
+      <c r="CB64" t="n">
+        <v>2.060927072</v>
+      </c>
+      <c r="CC64" t="n">
+        <v>2.052673615</v>
+      </c>
+      <c r="CD64" t="n">
+        <v>2.04461368</v>
+      </c>
+      <c r="CE64" t="n">
+        <v>2.036937731</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>2.029697836</v>
+      </c>
+      <c r="CG64" t="n">
+        <v>2.022930069</v>
+      </c>
+      <c r="CH64" t="n">
+        <v>2.016640768</v>
+      </c>
+      <c r="CI64" t="n">
+        <v>2.010785332</v>
+      </c>
+      <c r="CJ64" t="n">
+        <v>2.005300377</v>
+      </c>
+      <c r="CK64" t="n">
+        <v>2.000327861</v>
+      </c>
+      <c r="CL64" t="n">
+        <v>1.99594939</v>
+      </c>
+      <c r="CM64" t="n">
+        <v>1.991872326</v>
+      </c>
+      <c r="CN64" t="n">
+        <v>1.988223467</v>
+      </c>
+      <c r="CO64" t="n">
+        <v>1.985105894</v>
+      </c>
+      <c r="CP64" t="n">
+        <v>1.982484821</v>
+      </c>
+      <c r="CQ64" t="n">
+        <v>1.980257829</v>
+      </c>
+      <c r="CR64" t="n">
+        <v>1.978449485</v>
+      </c>
+      <c r="CS64" t="n">
+        <v>1.977112915</v>
+      </c>
+      <c r="CT64" t="n">
+        <v>1.976386757</v>
+      </c>
+      <c r="CU64" t="n">
+        <v>1.976112195</v>
+      </c>
+      <c r="CV64" t="n">
+        <v>1.976038211</v>
+      </c>
+      <c r="CW64" t="n">
+        <v>1.97658514</v>
+      </c>
+      <c r="CX64" t="n">
+        <v>1.977537357</v>
+      </c>
+      <c r="CY64" t="n">
+        <v>1.977671433</v>
+      </c>
+      <c r="CZ64" t="n">
+        <v>1.977066464</v>
+      </c>
+      <c r="DA64" t="n">
+        <v>1.975730199</v>
+      </c>
+      <c r="DB64" t="n">
+        <v>1.973649503</v>
+      </c>
+      <c r="DC64" t="n">
+        <v>1.970740977</v>
+      </c>
+      <c r="DD64" t="n">
+        <v>1.967018037</v>
+      </c>
+      <c r="DE64" t="n">
+        <v>1.962546252</v>
+      </c>
+      <c r="DF64" t="n">
+        <v>1.957311998</v>
+      </c>
+      <c r="DG64" t="n">
+        <v>1.951197188</v>
+      </c>
+      <c r="DH64" t="n">
+        <v>1.944269313</v>
+      </c>
+      <c r="DI64" t="n">
+        <v>1.936637946</v>
+      </c>
+      <c r="DJ64" t="n">
+        <v>1.928336607</v>
+      </c>
+      <c r="DK64" t="n">
+        <v>1.919043708</v>
+      </c>
+      <c r="DL64" t="n">
+        <v>1.908957096</v>
+      </c>
+      <c r="DM64" t="n">
+        <v>1.898202058</v>
+      </c>
+      <c r="DN64" t="n">
+        <v>1.886753724</v>
+      </c>
+      <c r="DO64" t="n">
+        <v>1.87428363</v>
+      </c>
+      <c r="DP64" t="n">
+        <v>1.861039865</v>
+      </c>
+      <c r="DQ64" t="n">
+        <v>1.847162782</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44267</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0722</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.078785367</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.084835494</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.084227212</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.102377573</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.136087489</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.186974786</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.276396966</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.405926819</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.550814452</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.699572546</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.85051491</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.004282911</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.148304074</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.279848695</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.400377733</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.510145546</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.609770332</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.700824484</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.781906741</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.854875181</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.921107971</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1.979846611</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.030982362</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2.075579547</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>2.113450142</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>2.143960948</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>2.167339511</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>2.184849168</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>2.201134274</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>2.21671443</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>2.231964414</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>2.24690614</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>2.261796765</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.276077667</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2.290236417</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2.304271175</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2.317883503</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>2.331075258</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>2.344142309</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>2.356614636</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>2.366248546</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>2.372625762</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>2.375825548</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.375883621</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>2.372596021</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>2.365999209</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.356284473</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>2.344157649</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>2.331740824</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>2.319997464</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>2.309051234</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>2.298937814</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>2.289290428</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.280025877</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>2.271804978</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>2.264589805</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>2.257413286</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>2.251171774</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>2.245637088</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>2.240679731</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>2.235631086</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2.230281022</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>2.22478724</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>2.219265794</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>2.21333873</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>2.207170531</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>2.200867697</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>2.194528314</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>2.187777329</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>2.180791328</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>2.173679779</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>2.166522257</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>2.158947518</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>2.151144065</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>2.143243683</v>
+      </c>
+      <c r="BZ65" t="n">
+        <v>2.135193977</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>2.126572665</v>
+      </c>
+      <c r="CB65" t="n">
+        <v>2.118040119</v>
+      </c>
+      <c r="CC65" t="n">
+        <v>2.109320804</v>
+      </c>
+      <c r="CD65" t="n">
+        <v>2.100514354</v>
+      </c>
+      <c r="CE65" t="n">
+        <v>2.092031799</v>
+      </c>
+      <c r="CF65" t="n">
+        <v>2.083983698</v>
+      </c>
+      <c r="CG65" t="n">
+        <v>2.076403462</v>
+      </c>
+      <c r="CH65" t="n">
+        <v>2.069297209</v>
+      </c>
+      <c r="CI65" t="n">
+        <v>2.062623284</v>
+      </c>
+      <c r="CJ65" t="n">
+        <v>2.056309475</v>
+      </c>
+      <c r="CK65" t="n">
+        <v>2.050514274</v>
+      </c>
+      <c r="CL65" t="n">
+        <v>2.045314003</v>
+      </c>
+      <c r="CM65" t="n">
+        <v>2.040397383</v>
+      </c>
+      <c r="CN65" t="n">
+        <v>2.035907845</v>
+      </c>
+      <c r="CO65" t="n">
+        <v>2.03195388</v>
+      </c>
+      <c r="CP65" t="n">
+        <v>2.028491354</v>
+      </c>
+      <c r="CQ65" t="n">
+        <v>2.025412638</v>
+      </c>
+      <c r="CR65" t="n">
+        <v>2.022751704</v>
+      </c>
+      <c r="CS65" t="n">
+        <v>2.020568947</v>
+      </c>
+      <c r="CT65" t="n">
+        <v>2.018996107</v>
+      </c>
+      <c r="CU65" t="n">
+        <v>2.017852845</v>
+      </c>
+      <c r="CV65" t="n">
+        <v>2.016900252</v>
+      </c>
+      <c r="CW65" t="n">
+        <v>2.016586589</v>
+      </c>
+      <c r="CX65" t="n">
+        <v>2.016691154</v>
+      </c>
+      <c r="CY65" t="n">
+        <v>2.015904397</v>
+      </c>
+      <c r="CZ65" t="n">
+        <v>2.014371669</v>
+      </c>
+      <c r="DA65" t="n">
+        <v>2.012071005</v>
+      </c>
+      <c r="DB65" t="n">
+        <v>2.008988555</v>
+      </c>
+      <c r="DC65" t="n">
+        <v>2.005047999</v>
+      </c>
+      <c r="DD65" t="n">
+        <v>2.000263494</v>
+      </c>
+      <c r="DE65" t="n">
+        <v>1.994692566</v>
+      </c>
+      <c r="DF65" t="n">
+        <v>1.988320848</v>
+      </c>
+      <c r="DG65" t="n">
+        <v>1.981026306</v>
+      </c>
+      <c r="DH65" t="n">
+        <v>1.972889473</v>
+      </c>
+      <c r="DI65" t="n">
+        <v>1.96402903</v>
+      </c>
+      <c r="DJ65" t="n">
+        <v>1.954462568</v>
+      </c>
+      <c r="DK65" t="n">
+        <v>1.943853533</v>
+      </c>
+      <c r="DL65" t="n">
+        <v>1.932422645</v>
+      </c>
+      <c r="DM65" t="n">
+        <v>1.92030475</v>
+      </c>
+      <c r="DN65" t="n">
+        <v>1.907455874</v>
+      </c>
+      <c r="DO65" t="n">
+        <v>1.89353341</v>
+      </c>
+      <c r="DP65" t="n">
+        <v>1.87881025</v>
+      </c>
+      <c r="DQ65" t="n">
+        <v>1.863436729</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
